--- a/data/FHM/FHM_latest.xlsx
+++ b/data/FHM/FHM_latest.xlsx
@@ -1,31 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19695" windowHeight="8910" firstSheet="1" activeTab="3"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
-    <sheet name="Antal avlidna per dag" sheetId="2" r:id="rId2"/>
-    <sheet name="Antal intensivvårdade per dag" sheetId="3" r:id="rId3"/>
-    <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
-    <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
-    <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 20 Apr 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="Antal per dag region" sheetId="1" r:id="rId2"/>
+    <sheet name="Antal avlidna per dag" sheetId="2" r:id="rId4"/>
+    <sheet name="Antal intensivvårdade per dag" sheetId="3" r:id="rId5"/>
+    <sheet name="Totalt antal per region" sheetId="4" r:id="rId6"/>
+    <sheet name="Totalt antal per kön" sheetId="5" r:id="rId7"/>
+    <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId8"/>
+    <sheet name="FOHM 21 Apr 2020" sheetId="7" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>Statistikdatum</t>
   </si>
@@ -180,7 +174,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -203,317 +197,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W78"/>
-  <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B78"/>
-    </sheetView>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W79"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -584,7 +290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2">
       <c r="A2" s="1">
         <v>43865</v>
       </c>
@@ -655,7 +361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3">
       <c r="A3" s="1">
         <v>43866</v>
       </c>
@@ -726,7 +432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4">
       <c r="A4" s="1">
         <v>43867</v>
       </c>
@@ -797,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5">
       <c r="A5" s="1">
         <v>43868</v>
       </c>
@@ -868,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6">
       <c r="A6" s="1">
         <v>43869</v>
       </c>
@@ -939,7 +645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7">
       <c r="A7" s="1">
         <v>43870</v>
       </c>
@@ -1010,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8">
       <c r="A8" s="1">
         <v>43871</v>
       </c>
@@ -1081,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9">
       <c r="A9" s="1">
         <v>43872</v>
       </c>
@@ -1152,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10">
       <c r="A10" s="1">
         <v>43873</v>
       </c>
@@ -1223,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11">
       <c r="A11" s="1">
         <v>43874</v>
       </c>
@@ -1294,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12">
       <c r="A12" s="1">
         <v>43875</v>
       </c>
@@ -1365,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13">
       <c r="A13" s="1">
         <v>43876</v>
       </c>
@@ -1436,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14">
       <c r="A14" s="1">
         <v>43877</v>
       </c>
@@ -1507,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15">
       <c r="A15" s="1">
         <v>43878</v>
       </c>
@@ -1578,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16">
       <c r="A16" s="1">
         <v>43879</v>
       </c>
@@ -1649,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17">
       <c r="A17" s="1">
         <v>43880</v>
       </c>
@@ -1720,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23">
+    <row r="18">
       <c r="A18" s="1">
         <v>43881</v>
       </c>
@@ -1791,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19">
       <c r="A19" s="1">
         <v>43882</v>
       </c>
@@ -1862,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20">
       <c r="A20" s="1">
         <v>43883</v>
       </c>
@@ -1933,7 +1639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21">
       <c r="A21" s="1">
         <v>43884</v>
       </c>
@@ -2004,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22">
       <c r="A22" s="1">
         <v>43885</v>
       </c>
@@ -2075,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23">
       <c r="A23" s="1">
         <v>43886</v>
       </c>
@@ -2146,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24">
       <c r="A24" s="1">
         <v>43887</v>
       </c>
@@ -2217,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25">
       <c r="A25" s="1">
         <v>43888</v>
       </c>
@@ -2288,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26">
       <c r="A26" s="1">
         <v>43889</v>
       </c>
@@ -2359,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27">
       <c r="A27" s="1">
         <v>43890</v>
       </c>
@@ -2430,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28">
       <c r="A28" s="1">
         <v>43891</v>
       </c>
@@ -2501,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29">
       <c r="A29" s="1">
         <v>43892</v>
       </c>
@@ -2572,7 +2278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30">
       <c r="A30" s="1">
         <v>43893</v>
       </c>
@@ -2643,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31">
       <c r="A31" s="1">
         <v>43894</v>
       </c>
@@ -2714,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32">
       <c r="A32" s="1">
         <v>43895</v>
       </c>
@@ -2785,7 +2491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23">
+    <row r="33">
       <c r="A33" s="1">
         <v>43896</v>
       </c>
@@ -2856,7 +2562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23">
+    <row r="34">
       <c r="A34" s="1">
         <v>43897</v>
       </c>
@@ -2927,7 +2633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23">
+    <row r="35">
       <c r="A35" s="1">
         <v>43898</v>
       </c>
@@ -2998,7 +2704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23">
+    <row r="36">
       <c r="A36" s="1">
         <v>43899</v>
       </c>
@@ -3069,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23">
+    <row r="37">
       <c r="A37" s="1">
         <v>43900</v>
       </c>
@@ -3140,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23">
+    <row r="38">
       <c r="A38" s="1">
         <v>43901</v>
       </c>
@@ -3211,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23">
+    <row r="39">
       <c r="A39" s="1">
         <v>43902</v>
       </c>
@@ -3282,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:23">
+    <row r="40">
       <c r="A40" s="1">
         <v>43903</v>
       </c>
@@ -3353,7 +3059,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:23">
+    <row r="41">
       <c r="A41" s="1">
         <v>43904</v>
       </c>
@@ -3424,7 +3130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:23">
+    <row r="42">
       <c r="A42" s="1">
         <v>43905</v>
       </c>
@@ -3495,7 +3201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:23">
+    <row r="43">
       <c r="A43" s="1">
         <v>43906</v>
       </c>
@@ -3566,7 +3272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:23">
+    <row r="44">
       <c r="A44" s="1">
         <v>43907</v>
       </c>
@@ -3637,7 +3343,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:23">
+    <row r="45">
       <c r="A45" s="1">
         <v>43908</v>
       </c>
@@ -3708,7 +3414,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:23">
+    <row r="46">
       <c r="A46" s="1">
         <v>43909</v>
       </c>
@@ -3779,7 +3485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:23">
+    <row r="47">
       <c r="A47" s="1">
         <v>43910</v>
       </c>
@@ -3850,7 +3556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:23">
+    <row r="48">
       <c r="A48" s="1">
         <v>43911</v>
       </c>
@@ -3921,7 +3627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49">
       <c r="A49" s="1">
         <v>43912</v>
       </c>
@@ -3992,7 +3698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50">
       <c r="A50" s="1">
         <v>43913</v>
       </c>
@@ -4063,7 +3769,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51">
       <c r="A51" s="1">
         <v>43914</v>
       </c>
@@ -4134,7 +3840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:23">
+    <row r="52">
       <c r="A52" s="1">
         <v>43915</v>
       </c>
@@ -4205,7 +3911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53">
       <c r="A53" s="1">
         <v>43916</v>
       </c>
@@ -4276,7 +3982,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54">
       <c r="A54" s="1">
         <v>43917</v>
       </c>
@@ -4347,7 +4053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55">
       <c r="A55" s="1">
         <v>43918</v>
       </c>
@@ -4418,7 +4124,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56">
       <c r="A56" s="1">
         <v>43919</v>
       </c>
@@ -4489,7 +4195,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57">
       <c r="A57" s="1">
         <v>43920</v>
       </c>
@@ -4560,7 +4266,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58">
       <c r="A58" s="1">
         <v>43921</v>
       </c>
@@ -4631,7 +4337,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59">
       <c r="A59" s="1">
         <v>43922</v>
       </c>
@@ -4702,7 +4408,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60">
       <c r="A60" s="1">
         <v>43923</v>
       </c>
@@ -4773,7 +4479,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61">
       <c r="A61" s="1">
         <v>43924</v>
       </c>
@@ -4844,7 +4550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62">
       <c r="A62" s="1">
         <v>43925</v>
       </c>
@@ -4915,7 +4621,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63">
       <c r="A63" s="1">
         <v>43926</v>
       </c>
@@ -4986,7 +4692,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64">
       <c r="A64" s="1">
         <v>43927</v>
       </c>
@@ -5057,7 +4763,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65">
       <c r="A65" s="1">
         <v>43928</v>
       </c>
@@ -5128,7 +4834,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66">
       <c r="A66" s="1">
         <v>43929</v>
       </c>
@@ -5199,7 +4905,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67">
       <c r="A67" s="1">
         <v>43930</v>
       </c>
@@ -5270,7 +4976,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68">
       <c r="A68" s="1">
         <v>43931</v>
       </c>
@@ -5341,7 +5047,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69">
       <c r="A69" s="1">
         <v>43932</v>
       </c>
@@ -5412,7 +5118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70">
       <c r="A70" s="1">
         <v>43933</v>
       </c>
@@ -5483,7 +5189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71">
       <c r="A71" s="1">
         <v>43934</v>
       </c>
@@ -5554,7 +5260,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72">
       <c r="A72" s="1">
         <v>43935</v>
       </c>
@@ -5625,7 +5331,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73">
       <c r="A73" s="1">
         <v>43936</v>
       </c>
@@ -5669,10 +5375,10 @@
         <v>215</v>
       </c>
       <c r="O73" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P73" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q73" s="2">
         <v>3</v>
@@ -5696,7 +5402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74">
       <c r="A74" s="1">
         <v>43937</v>
       </c>
@@ -5767,7 +5473,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75">
       <c r="A75" s="1">
         <v>43938</v>
       </c>
@@ -5838,12 +5544,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76">
       <c r="A76" s="1">
         <v>43939</v>
       </c>
       <c r="B76" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C76" s="2">
         <v>0</v>
@@ -5879,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="N76" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O76" s="2">
         <v>8</v>
@@ -5909,7 +5615,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77">
       <c r="A77" s="1">
         <v>43940</v>
       </c>
@@ -5980,93 +5686,158 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78">
       <c r="A78" s="1">
         <v>43941</v>
       </c>
       <c r="B78" s="2">
-        <v>112</v>
+        <v>462</v>
       </c>
       <c r="C78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D78" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G78" s="2">
+        <v>10</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2">
+        <v>8</v>
+      </c>
+      <c r="J78" s="2">
+        <v>6</v>
+      </c>
+      <c r="K78" s="2">
+        <v>9</v>
+      </c>
+      <c r="L78" s="2">
+        <v>8</v>
+      </c>
+      <c r="M78" s="2">
+        <v>9</v>
+      </c>
+      <c r="N78" s="2">
+        <v>211</v>
+      </c>
+      <c r="O78" s="2">
+        <v>14</v>
+      </c>
+      <c r="P78" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>7</v>
+      </c>
+      <c r="R78" s="2">
         <v>4</v>
       </c>
-      <c r="H78" s="2">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2">
-        <v>1</v>
-      </c>
-      <c r="J78" s="2">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2">
-        <v>2</v>
-      </c>
-      <c r="M78" s="2">
-        <v>0</v>
-      </c>
-      <c r="N78" s="2">
-        <v>75</v>
-      </c>
-      <c r="O78" s="2">
-        <v>2</v>
-      </c>
-      <c r="P78" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="2">
-        <v>1</v>
-      </c>
-      <c r="R78" s="2">
+      <c r="S78" s="2">
+        <v>2</v>
+      </c>
+      <c r="T78" s="2">
+        <v>28</v>
+      </c>
+      <c r="U78" s="2">
+        <v>50</v>
+      </c>
+      <c r="V78" s="2">
+        <v>23</v>
+      </c>
+      <c r="W78" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B79" s="2">
+        <v>194</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>0</v>
+      </c>
+      <c r="F79" s="2">
+        <v>12</v>
+      </c>
+      <c r="G79" s="2">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
+        <v>0</v>
+      </c>
+      <c r="I79" s="2">
+        <v>10</v>
+      </c>
+      <c r="J79" s="2">
+        <v>4</v>
+      </c>
+      <c r="K79" s="2">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2">
+        <v>1</v>
+      </c>
+      <c r="M79" s="2">
+        <v>2</v>
+      </c>
+      <c r="N79" s="2">
+        <v>60</v>
+      </c>
+      <c r="O79" s="2">
+        <v>1</v>
+      </c>
+      <c r="P79" s="2">
         <v>3</v>
       </c>
-      <c r="S78" s="2">
-        <v>0</v>
-      </c>
-      <c r="T78" s="2">
-        <v>14</v>
-      </c>
-      <c r="U78" s="2">
-        <v>4</v>
-      </c>
-      <c r="V78" s="2">
-        <v>6</v>
-      </c>
-      <c r="W78" s="2">
-        <v>0</v>
+      <c r="Q79" s="2">
+        <v>0</v>
+      </c>
+      <c r="R79" s="2">
+        <v>2</v>
+      </c>
+      <c r="S79" s="2">
+        <v>0</v>
+      </c>
+      <c r="T79" s="2">
+        <v>31</v>
+      </c>
+      <c r="U79" s="2">
+        <v>33</v>
+      </c>
+      <c r="V79" s="2">
+        <v>16</v>
+      </c>
+      <c r="W79" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B2:B43"/>
-    </sheetView>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B44"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -6074,7 +5845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" s="1">
         <v>43901</v>
       </c>
@@ -6082,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" s="1">
         <v>43902</v>
       </c>
@@ -6090,7 +5861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" s="1">
         <v>43903</v>
       </c>
@@ -6098,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" s="1">
         <v>43904</v>
       </c>
@@ -6106,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" s="1">
         <v>43905</v>
       </c>
@@ -6114,7 +5885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" s="1">
         <v>43906</v>
       </c>
@@ -6122,7 +5893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" s="1">
         <v>43907</v>
       </c>
@@ -6130,7 +5901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" s="1">
         <v>43908</v>
       </c>
@@ -6138,7 +5909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" s="1">
         <v>43909</v>
       </c>
@@ -6146,7 +5917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" s="1">
         <v>43910</v>
       </c>
@@ -6154,7 +5925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12">
       <c r="A12" s="1">
         <v>43911</v>
       </c>
@@ -6162,7 +5933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13">
       <c r="A13" s="1">
         <v>43912</v>
       </c>
@@ -6170,7 +5941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14">
       <c r="A14" s="1">
         <v>43913</v>
       </c>
@@ -6178,7 +5949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15">
       <c r="A15" s="1">
         <v>43914</v>
       </c>
@@ -6186,7 +5957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16">
       <c r="A16" s="1">
         <v>43915</v>
       </c>
@@ -6194,7 +5965,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17">
       <c r="A17" s="1">
         <v>43916</v>
       </c>
@@ -6202,7 +5973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18">
       <c r="A18" s="1">
         <v>43917</v>
       </c>
@@ -6210,7 +5981,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19">
       <c r="A19" s="1">
         <v>43918</v>
       </c>
@@ -6218,15 +5989,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20">
       <c r="A20" s="1">
         <v>43919</v>
       </c>
       <c r="B20" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1">
         <v>43920</v>
       </c>
@@ -6234,7 +6005,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22">
       <c r="A22" s="1">
         <v>43921</v>
       </c>
@@ -6242,15 +6013,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23">
       <c r="A23" s="1">
         <v>43922</v>
       </c>
       <c r="B23" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1">
         <v>43923</v>
       </c>
@@ -6258,31 +6029,31 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25">
       <c r="A25" s="1">
         <v>43924</v>
       </c>
       <c r="B25" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1">
         <v>43925</v>
       </c>
       <c r="B26" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1">
         <v>43926</v>
       </c>
       <c r="B27" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1">
         <v>43927</v>
       </c>
@@ -6290,142 +6061,142 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29">
       <c r="A29" s="1">
         <v>43928</v>
       </c>
       <c r="B29" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1">
         <v>43929</v>
       </c>
       <c r="B30" s="2">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1">
         <v>43930</v>
       </c>
       <c r="B31" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="1">
         <v>43931</v>
       </c>
       <c r="B32" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1">
         <v>43932</v>
       </c>
       <c r="B33" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1">
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1">
         <v>43934</v>
       </c>
       <c r="B35" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1">
         <v>43935</v>
       </c>
       <c r="B36" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="1">
         <v>43936</v>
       </c>
       <c r="B37" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1">
         <v>43937</v>
       </c>
       <c r="B38" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1">
         <v>43938</v>
       </c>
       <c r="B39" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1">
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="1">
         <v>43940</v>
       </c>
       <c r="B41" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="1">
         <v>43941</v>
       </c>
       <c r="B42" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1">
+        <v>43942</v>
       </c>
       <c r="B43" s="2">
-        <v>20</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B56"/>
-    </sheetView>
-  </sheetViews>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B48"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -6433,7 +6204,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -6441,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
@@ -6449,7 +6220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
@@ -6457,7 +6228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
@@ -6465,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
@@ -6473,7 +6244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -6481,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -6489,7 +6260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -6497,7 +6268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -6505,7 +6276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
@@ -6513,7 +6284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
@@ -6521,7 +6292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
@@ -6529,7 +6300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
@@ -6537,7 +6308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
@@ -6545,7 +6316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16">
       <c r="A16" s="1">
         <v>43910</v>
       </c>
@@ -6553,7 +6324,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17">
       <c r="A17" s="1">
         <v>43911</v>
       </c>
@@ -6561,7 +6332,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18">
       <c r="A18" s="1">
         <v>43912</v>
       </c>
@@ -6569,15 +6340,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19">
       <c r="A19" s="1">
         <v>43913</v>
       </c>
       <c r="B19" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1">
         <v>43914</v>
       </c>
@@ -6585,7 +6356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21">
       <c r="A21" s="1">
         <v>43915</v>
       </c>
@@ -6593,7 +6364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22">
       <c r="A22" s="1">
         <v>43916</v>
       </c>
@@ -6601,7 +6372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23">
       <c r="A23" s="1">
         <v>43917</v>
       </c>
@@ -6609,7 +6380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24">
       <c r="A24" s="1">
         <v>43918</v>
       </c>
@@ -6617,7 +6388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25">
       <c r="A25" s="1">
         <v>43919</v>
       </c>
@@ -6625,7 +6396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26">
       <c r="A26" s="1">
         <v>43920</v>
       </c>
@@ -6633,7 +6404,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27">
       <c r="A27" s="1">
         <v>43921</v>
       </c>
@@ -6641,7 +6412,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28">
       <c r="A28" s="1">
         <v>43922</v>
       </c>
@@ -6649,7 +6420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29">
       <c r="A29" s="1">
         <v>43923</v>
       </c>
@@ -6657,7 +6428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30">
       <c r="A30" s="1">
         <v>43924</v>
       </c>
@@ -6665,7 +6436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31">
       <c r="A31" s="1">
         <v>43925</v>
       </c>
@@ -6673,15 +6444,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32">
       <c r="A32" s="1">
         <v>43926</v>
       </c>
       <c r="B32" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1">
         <v>43927</v>
       </c>
@@ -6689,7 +6460,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34">
       <c r="A34" s="1">
         <v>43928</v>
       </c>
@@ -6697,7 +6468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35">
       <c r="A35" s="1">
         <v>43929</v>
       </c>
@@ -6705,7 +6476,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36">
       <c r="A36" s="1">
         <v>43930</v>
       </c>
@@ -6713,7 +6484,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37">
       <c r="A37" s="1">
         <v>43931</v>
       </c>
@@ -6721,7 +6492,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38">
       <c r="A38" s="1">
         <v>43932</v>
       </c>
@@ -6729,7 +6500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39">
       <c r="A39" s="1">
         <v>43933</v>
       </c>
@@ -6737,7 +6508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40">
       <c r="A40" s="1">
         <v>43934</v>
       </c>
@@ -6745,7 +6516,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41">
       <c r="A41" s="1">
         <v>43935</v>
       </c>
@@ -6753,7 +6524,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42">
       <c r="A42" s="1">
         <v>43936</v>
       </c>
@@ -6761,62 +6532,64 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43">
       <c r="A43" s="1">
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="1">
         <v>43938</v>
       </c>
       <c r="B44" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="1">
         <v>43939</v>
       </c>
       <c r="B45" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="1">
         <v>43940</v>
       </c>
       <c r="B46" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="1">
         <v>43941</v>
       </c>
       <c r="B47" s="2">
-        <v>8</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B48" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B22"/>
-    </sheetView>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -6833,15 +6606,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2">
-        <v>26.941343307495117</v>
+        <v>27.567886352539063</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -6850,32 +6623,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C3" s="2">
-        <v>170.50624084472656</v>
+        <v>173.97886657714844</v>
       </c>
       <c r="D3" s="2">
         <v>32</v>
       </c>
       <c r="E3" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2">
-        <v>31.833261489868164</v>
+        <v>33.508693695068359</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -6884,49 +6657,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>411</v>
+        <v>427</v>
       </c>
       <c r="C5" s="2">
-        <v>143.01521301269531</v>
+        <v>148.58271789550781</v>
       </c>
       <c r="D5" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C6" s="2">
-        <v>72.18853759765625</v>
+        <v>73.985763549804688</v>
       </c>
       <c r="D6" s="2">
         <v>19</v>
       </c>
       <c r="E6" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C7" s="2">
-        <v>162.83158874511719</v>
+        <v>163.59605407714844</v>
       </c>
       <c r="D7" s="2">
         <v>5</v>
@@ -6935,275 +6708,271 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C8" s="2">
-        <v>138.88926696777344</v>
+        <v>143.56475830078125</v>
       </c>
       <c r="D8" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2">
-        <v>39.927314758300781</v>
+        <v>44.001533508300781</v>
       </c>
       <c r="D9" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C10" s="2">
-        <v>86.86199951171875</v>
+        <v>91.329185485839844</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C11" s="2">
-        <v>77.571144104003906</v>
+        <v>80.370101928710938</v>
       </c>
       <c r="D11" s="2">
         <v>22</v>
       </c>
       <c r="E11" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="C12" s="2">
-        <v>39.845352172851563</v>
+        <v>40.643711090087891</v>
       </c>
       <c r="D12" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>5992</v>
+        <v>6189</v>
       </c>
       <c r="C13" s="2">
-        <v>252.07386779785156</v>
+        <v>260.361328125</v>
       </c>
       <c r="D13" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E13" s="2">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>884</v>
+        <v>898</v>
       </c>
       <c r="C14" s="2">
-        <v>297.1029052734375</v>
+        <v>301.80816650390625</v>
       </c>
       <c r="D14" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="C15" s="2">
-        <v>173.82783508300781</v>
+        <v>182.68862915039063</v>
       </c>
       <c r="D15" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C16" s="2">
-        <v>37.179458618164063</v>
+        <v>39.304000854492188</v>
       </c>
       <c r="D16" s="2">
         <v>11</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C17" s="2">
-        <v>88.689018249511719</v>
+        <v>89.793037414550781</v>
       </c>
       <c r="D17" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C18" s="2">
-        <v>56.654453277587891</v>
+        <v>57.469623565673828</v>
       </c>
       <c r="D18" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>528</v>
+        <v>573</v>
       </c>
       <c r="C19" s="2">
-        <v>191.41184997558594</v>
+        <v>207.72535705566406</v>
       </c>
       <c r="D19" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>1478</v>
+        <v>1557</v>
       </c>
       <c r="C20" s="2">
-        <v>85.637420654296875</v>
+        <v>90.214797973632813</v>
       </c>
       <c r="D20" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>630</v>
+        <v>663</v>
       </c>
       <c r="C21" s="2">
-        <v>206.68952941894531</v>
+        <v>217.51611328125</v>
       </c>
       <c r="D21" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1174</v>
+        <v>1217</v>
       </c>
       <c r="C22" s="2">
-        <v>252.20463562011719</v>
+        <v>261.44210815429688</v>
       </c>
       <c r="D22" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E22" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -7217,40 +6986,40 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>6970</v>
+        <v>7185</v>
       </c>
       <c r="C2" s="2">
-        <v>841</v>
+        <v>860</v>
       </c>
       <c r="D2" s="2">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>7804</v>
+        <v>8133</v>
       </c>
       <c r="C3" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D3" s="2">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -7260,19 +7029,15 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -7286,12 +7051,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -7300,12 +7065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -7314,26 +7079,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1057</v>
+        <v>1095</v>
       </c>
       <c r="C4" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>1407</v>
+        <v>1459</v>
       </c>
       <c r="C5" s="2">
         <v>53</v>
@@ -7342,91 +7107,91 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>1874</v>
+        <v>1940</v>
       </c>
       <c r="C6" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>2526</v>
+        <v>2642</v>
       </c>
       <c r="C7" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D7" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>2020</v>
+        <v>2093</v>
       </c>
       <c r="C8" s="2">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="D8" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>2042</v>
+        <v>2097</v>
       </c>
       <c r="C9" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D9" s="2">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>2372</v>
+        <v>2451</v>
       </c>
       <c r="C10" s="2">
         <v>35</v>
       </c>
       <c r="D10" s="2">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1207</v>
+        <v>1265</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -7441,29 +7206,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/FHM/FHM_latest.xlsx
+++ b/data/FHM/FHM_latest.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\covid-19\Do-filer och analys\filer till dashboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11700" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Antal per dag region" sheetId="1" r:id="rId2"/>
-    <sheet name="Antal avlidna per dag" sheetId="2" r:id="rId4"/>
-    <sheet name="Antal intensivvårdade per dag" sheetId="3" r:id="rId5"/>
-    <sheet name="Totalt antal per region" sheetId="4" r:id="rId6"/>
-    <sheet name="Totalt antal per kön" sheetId="5" r:id="rId7"/>
-    <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId8"/>
-    <sheet name="FOHM 21 Apr 2020" sheetId="7" r:id="rId9"/>
+    <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
+    <sheet name="Antal avlidna per dag" sheetId="2" r:id="rId2"/>
+    <sheet name="Antal intensivvårdade per dag" sheetId="3" r:id="rId3"/>
+    <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
+    <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
+    <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
+    <sheet name="FOHM 22 Apr 2020" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Statistikdatum</t>
   </si>
@@ -174,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -197,29 +203,318 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -290,7 +585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>43865</v>
       </c>
@@ -361,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>43866</v>
       </c>
@@ -432,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>43867</v>
       </c>
@@ -503,7 +798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>43868</v>
       </c>
@@ -574,7 +869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>43869</v>
       </c>
@@ -645,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>43870</v>
       </c>
@@ -716,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>43871</v>
       </c>
@@ -787,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>43872</v>
       </c>
@@ -858,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>43873</v>
       </c>
@@ -929,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>43874</v>
       </c>
@@ -1000,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>43875</v>
       </c>
@@ -1071,7 +1366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>43876</v>
       </c>
@@ -1142,7 +1437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>43877</v>
       </c>
@@ -1213,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>43878</v>
       </c>
@@ -1284,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>43879</v>
       </c>
@@ -1355,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:23">
       <c r="A17" s="1">
         <v>43880</v>
       </c>
@@ -1426,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:23">
       <c r="A18" s="1">
         <v>43881</v>
       </c>
@@ -1497,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:23">
       <c r="A19" s="1">
         <v>43882</v>
       </c>
@@ -1568,7 +1863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:23">
       <c r="A20" s="1">
         <v>43883</v>
       </c>
@@ -1639,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:23">
       <c r="A21" s="1">
         <v>43884</v>
       </c>
@@ -1710,7 +2005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:23">
       <c r="A22" s="1">
         <v>43885</v>
       </c>
@@ -1781,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:23">
       <c r="A23" s="1">
         <v>43886</v>
       </c>
@@ -1852,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:23">
       <c r="A24" s="1">
         <v>43887</v>
       </c>
@@ -1923,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:23">
       <c r="A25" s="1">
         <v>43888</v>
       </c>
@@ -1994,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:23">
       <c r="A26" s="1">
         <v>43889</v>
       </c>
@@ -2065,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:23">
       <c r="A27" s="1">
         <v>43890</v>
       </c>
@@ -2136,7 +2431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:23">
       <c r="A28" s="1">
         <v>43891</v>
       </c>
@@ -2207,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:23">
       <c r="A29" s="1">
         <v>43892</v>
       </c>
@@ -2278,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:23">
       <c r="A30" s="1">
         <v>43893</v>
       </c>
@@ -2349,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:23">
       <c r="A31" s="1">
         <v>43894</v>
       </c>
@@ -2420,7 +2715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:23">
       <c r="A32" s="1">
         <v>43895</v>
       </c>
@@ -2491,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:23">
       <c r="A33" s="1">
         <v>43896</v>
       </c>
@@ -2562,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:23">
       <c r="A34" s="1">
         <v>43897</v>
       </c>
@@ -2633,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:23">
       <c r="A35" s="1">
         <v>43898</v>
       </c>
@@ -2704,7 +2999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:23">
       <c r="A36" s="1">
         <v>43899</v>
       </c>
@@ -2775,7 +3070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:23">
       <c r="A37" s="1">
         <v>43900</v>
       </c>
@@ -2846,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:23">
       <c r="A38" s="1">
         <v>43901</v>
       </c>
@@ -2917,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:23">
       <c r="A39" s="1">
         <v>43902</v>
       </c>
@@ -2988,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:23">
       <c r="A40" s="1">
         <v>43903</v>
       </c>
@@ -3059,7 +3354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:23">
       <c r="A41" s="1">
         <v>43904</v>
       </c>
@@ -3130,7 +3425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:23">
       <c r="A42" s="1">
         <v>43905</v>
       </c>
@@ -3201,7 +3496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:23">
       <c r="A43" s="1">
         <v>43906</v>
       </c>
@@ -3272,7 +3567,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:23">
       <c r="A44" s="1">
         <v>43907</v>
       </c>
@@ -3343,7 +3638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:23">
       <c r="A45" s="1">
         <v>43908</v>
       </c>
@@ -3414,7 +3709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:23">
       <c r="A46" s="1">
         <v>43909</v>
       </c>
@@ -3485,7 +3780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:23">
       <c r="A47" s="1">
         <v>43910</v>
       </c>
@@ -3556,7 +3851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:23">
       <c r="A48" s="1">
         <v>43911</v>
       </c>
@@ -3627,7 +3922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:23">
       <c r="A49" s="1">
         <v>43912</v>
       </c>
@@ -3698,7 +3993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:23">
       <c r="A50" s="1">
         <v>43913</v>
       </c>
@@ -3769,7 +4064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:23">
       <c r="A51" s="1">
         <v>43914</v>
       </c>
@@ -3840,7 +4135,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:23">
       <c r="A52" s="1">
         <v>43915</v>
       </c>
@@ -3911,7 +4206,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:23">
       <c r="A53" s="1">
         <v>43916</v>
       </c>
@@ -3982,7 +4277,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:23">
       <c r="A54" s="1">
         <v>43917</v>
       </c>
@@ -4053,7 +4348,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:23">
       <c r="A55" s="1">
         <v>43918</v>
       </c>
@@ -4124,7 +4419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:23">
       <c r="A56" s="1">
         <v>43919</v>
       </c>
@@ -4195,7 +4490,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:23">
       <c r="A57" s="1">
         <v>43920</v>
       </c>
@@ -4266,7 +4561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:23">
       <c r="A58" s="1">
         <v>43921</v>
       </c>
@@ -4337,7 +4632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:23">
       <c r="A59" s="1">
         <v>43922</v>
       </c>
@@ -4378,13 +4673,13 @@
         <v>8</v>
       </c>
       <c r="N59" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O59" s="2">
         <v>49</v>
       </c>
       <c r="P59" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q59" s="2">
         <v>2</v>
@@ -4408,7 +4703,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:23">
       <c r="A60" s="1">
         <v>43923</v>
       </c>
@@ -4479,7 +4774,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:23">
       <c r="A61" s="1">
         <v>43924</v>
       </c>
@@ -4493,7 +4788,7 @@
         <v>20</v>
       </c>
       <c r="E61" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" s="2">
         <v>16</v>
@@ -4547,10 +4842,10 @@
         <v>20</v>
       </c>
       <c r="W61" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="1">
         <v>43925</v>
       </c>
@@ -4621,7 +4916,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:23">
       <c r="A63" s="1">
         <v>43926</v>
       </c>
@@ -4692,7 +4987,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:23">
       <c r="A64" s="1">
         <v>43927</v>
       </c>
@@ -4763,7 +5058,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:23">
       <c r="A65" s="1">
         <v>43928</v>
       </c>
@@ -4834,12 +5129,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:23">
       <c r="A66" s="1">
         <v>43929</v>
       </c>
       <c r="B66" s="2">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
@@ -4860,7 +5155,7 @@
         <v>8</v>
       </c>
       <c r="I66" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J66" s="2">
         <v>2</v>
@@ -4905,7 +5200,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:23">
       <c r="A67" s="1">
         <v>43930</v>
       </c>
@@ -4976,7 +5271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:23">
       <c r="A68" s="1">
         <v>43931</v>
       </c>
@@ -5047,7 +5342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:23">
       <c r="A69" s="1">
         <v>43932</v>
       </c>
@@ -5118,7 +5413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:23">
       <c r="A70" s="1">
         <v>43933</v>
       </c>
@@ -5189,7 +5484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:23">
       <c r="A71" s="1">
         <v>43934</v>
       </c>
@@ -5260,7 +5555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:23">
       <c r="A72" s="1">
         <v>43935</v>
       </c>
@@ -5331,7 +5626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:23">
       <c r="A73" s="1">
         <v>43936</v>
       </c>
@@ -5402,7 +5697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:23">
       <c r="A74" s="1">
         <v>43937</v>
       </c>
@@ -5473,7 +5768,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:23">
       <c r="A75" s="1">
         <v>43938</v>
       </c>
@@ -5544,7 +5839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:23">
       <c r="A76" s="1">
         <v>43939</v>
       </c>
@@ -5615,7 +5910,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:23">
       <c r="A77" s="1">
         <v>43940</v>
       </c>
@@ -5686,7 +5981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:23">
       <c r="A78" s="1">
         <v>43941</v>
       </c>
@@ -5757,87 +6052,167 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:23">
       <c r="A79" s="1">
         <v>43942</v>
       </c>
       <c r="B79" s="2">
-        <v>194</v>
+        <v>677</v>
       </c>
       <c r="C79" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D79" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E79" s="2">
         <v>0</v>
       </c>
       <c r="F79" s="2">
+        <v>22</v>
+      </c>
+      <c r="G79" s="2">
         <v>12</v>
       </c>
-      <c r="G79" s="2">
-        <v>0</v>
-      </c>
       <c r="H79" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I79" s="2">
+        <v>46</v>
+      </c>
+      <c r="J79" s="2">
         <v>10</v>
       </c>
-      <c r="J79" s="2">
-        <v>4</v>
-      </c>
       <c r="K79" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L79" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M79" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N79" s="2">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="O79" s="2">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="P79" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>6</v>
+      </c>
+      <c r="R79" s="2">
+        <v>5</v>
+      </c>
+      <c r="S79" s="2">
+        <v>12</v>
+      </c>
+      <c r="T79" s="2">
+        <v>39</v>
+      </c>
+      <c r="U79" s="2">
+        <v>122</v>
+      </c>
+      <c r="V79" s="2">
+        <v>64</v>
+      </c>
+      <c r="W79" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B80" s="2">
+        <v>200</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>6</v>
+      </c>
+      <c r="G80" s="2">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
+        <v>7</v>
+      </c>
+      <c r="I80" s="2">
+        <v>2</v>
+      </c>
+      <c r="J80" s="2">
+        <v>1</v>
+      </c>
+      <c r="K80" s="2">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2">
+        <v>2</v>
+      </c>
+      <c r="M80" s="2">
+        <v>10</v>
+      </c>
+      <c r="N80" s="2">
+        <v>118</v>
+      </c>
+      <c r="O80" s="2">
+        <v>1</v>
+      </c>
+      <c r="P80" s="2">
         <v>3</v>
       </c>
-      <c r="Q79" s="2">
-        <v>0</v>
-      </c>
-      <c r="R79" s="2">
-        <v>2</v>
-      </c>
-      <c r="S79" s="2">
-        <v>0</v>
-      </c>
-      <c r="T79" s="2">
-        <v>31</v>
-      </c>
-      <c r="U79" s="2">
-        <v>33</v>
-      </c>
-      <c r="V79" s="2">
-        <v>16</v>
-      </c>
-      <c r="W79" s="2">
-        <v>19</v>
+      <c r="Q80" s="2">
+        <v>0</v>
+      </c>
+      <c r="R80" s="2">
+        <v>2</v>
+      </c>
+      <c r="S80" s="2">
+        <v>0</v>
+      </c>
+      <c r="T80" s="2">
+        <v>0</v>
+      </c>
+      <c r="U80" s="2">
+        <v>21</v>
+      </c>
+      <c r="V80" s="2">
+        <v>9</v>
+      </c>
+      <c r="W80" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -5845,7 +6220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>43901</v>
       </c>
@@ -5853,7 +6228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43902</v>
       </c>
@@ -5861,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>43903</v>
       </c>
@@ -5869,7 +6244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43904</v>
       </c>
@@ -5877,7 +6252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43905</v>
       </c>
@@ -5885,7 +6260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43906</v>
       </c>
@@ -5893,7 +6268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>43907</v>
       </c>
@@ -5901,7 +6276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43908</v>
       </c>
@@ -5909,7 +6284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>43909</v>
       </c>
@@ -5917,7 +6292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>43910</v>
       </c>
@@ -5925,7 +6300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>43911</v>
       </c>
@@ -5933,7 +6308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>43912</v>
       </c>
@@ -5941,7 +6316,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>43913</v>
       </c>
@@ -5949,23 +6324,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>43914</v>
       </c>
       <c r="B15" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>43915</v>
       </c>
       <c r="B16" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>43916</v>
       </c>
@@ -5973,7 +6348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>43917</v>
       </c>
@@ -5981,7 +6356,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>43918</v>
       </c>
@@ -5989,7 +6364,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>43919</v>
       </c>
@@ -5997,7 +6372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>43920</v>
       </c>
@@ -6005,31 +6380,31 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>43921</v>
       </c>
       <c r="B22" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>43922</v>
       </c>
       <c r="B23" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>43923</v>
       </c>
       <c r="B24" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>43924</v>
       </c>
@@ -6037,166 +6412,183 @@
         <v>81</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>43925</v>
       </c>
       <c r="B26" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>43926</v>
       </c>
       <c r="B27" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>43927</v>
       </c>
       <c r="B28" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>43928</v>
       </c>
       <c r="B29" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>43929</v>
       </c>
       <c r="B30" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>43930</v>
       </c>
       <c r="B31" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>43931</v>
       </c>
       <c r="B32" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>43932</v>
       </c>
       <c r="B33" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>43934</v>
       </c>
       <c r="B35" s="2">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>43935</v>
       </c>
       <c r="B36" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>43936</v>
       </c>
       <c r="B37" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>43937</v>
       </c>
       <c r="B38" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>43938</v>
       </c>
       <c r="B39" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>43940</v>
       </c>
       <c r="B41" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>43941</v>
       </c>
       <c r="B42" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>43942</v>
       </c>
       <c r="B43" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>43943</v>
+      </c>
       <c r="B44" s="2">
-        <v>19</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -6204,7 +6596,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>43896</v>
       </c>
@@ -6212,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>43897</v>
       </c>
@@ -6220,7 +6612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>43898</v>
       </c>
@@ -6228,7 +6620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>43899</v>
       </c>
@@ -6236,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>43900</v>
       </c>
@@ -6244,7 +6636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>43901</v>
       </c>
@@ -6252,7 +6644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>43902</v>
       </c>
@@ -6260,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>43903</v>
       </c>
@@ -6268,7 +6660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>43904</v>
       </c>
@@ -6276,7 +6668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>43905</v>
       </c>
@@ -6284,7 +6676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>43906</v>
       </c>
@@ -6292,7 +6684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>43907</v>
       </c>
@@ -6300,7 +6692,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>43908</v>
       </c>
@@ -6308,7 +6700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>43909</v>
       </c>
@@ -6316,7 +6708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>43910</v>
       </c>
@@ -6324,7 +6716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>43911</v>
       </c>
@@ -6332,15 +6724,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>43912</v>
       </c>
       <c r="B18" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>43913</v>
       </c>
@@ -6348,7 +6740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>43914</v>
       </c>
@@ -6356,15 +6748,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>43915</v>
       </c>
       <c r="B21" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>43916</v>
       </c>
@@ -6372,15 +6764,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>43917</v>
       </c>
       <c r="B23" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>43918</v>
       </c>
@@ -6388,15 +6780,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>43919</v>
       </c>
       <c r="B25" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>43920</v>
       </c>
@@ -6404,7 +6796,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>43921</v>
       </c>
@@ -6412,31 +6804,31 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>43922</v>
       </c>
       <c r="B28" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>43923</v>
       </c>
       <c r="B29" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>43924</v>
       </c>
       <c r="B30" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>43925</v>
       </c>
@@ -6444,7 +6836,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>43926</v>
       </c>
@@ -6452,23 +6844,23 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>43927</v>
       </c>
       <c r="B33" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>43929</v>
       </c>
@@ -6476,7 +6868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>43930</v>
       </c>
@@ -6484,7 +6876,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>43931</v>
       </c>
@@ -6492,7 +6884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>43932</v>
       </c>
@@ -6500,7 +6892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>43933</v>
       </c>
@@ -6508,23 +6900,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>43934</v>
       </c>
       <c r="B40" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>43936</v>
       </c>
@@ -6532,31 +6924,31 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>43938</v>
       </c>
       <c r="B44" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>43939</v>
       </c>
       <c r="B45" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>43940</v>
       </c>
@@ -6564,32 +6956,46 @@
         <v>33</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>43941</v>
       </c>
       <c r="B47" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>43942</v>
       </c>
       <c r="B48" s="2">
-        <v>3</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B49" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -6606,15 +7012,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
-        <v>27.567886352539063</v>
+        <v>29.447513580322266</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -6623,32 +7029,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="C3" s="2">
-        <v>173.97886657714844</v>
+        <v>186.13308715820313</v>
       </c>
       <c r="D3" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
-        <v>33.508693695068359</v>
+        <v>31.833261489868164</v>
       </c>
       <c r="D4" s="2">
         <v>3</v>
@@ -6657,100 +7063,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="C5" s="2">
-        <v>148.58271789550781</v>
+        <v>154.15022277832031</v>
       </c>
       <c r="D5" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C6" s="2">
-        <v>73.985763549804688</v>
+        <v>77.580215454101563</v>
       </c>
       <c r="D6" s="2">
         <v>19</v>
       </c>
       <c r="E6" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="C7" s="2">
-        <v>163.59605407714844</v>
+        <v>178.88540649414063</v>
       </c>
       <c r="D7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>522</v>
+        <v>559</v>
       </c>
       <c r="C8" s="2">
-        <v>143.56475830078125</v>
+        <v>153.74079895019531</v>
       </c>
       <c r="D8" s="2">
         <v>40</v>
       </c>
       <c r="E8" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2">
-        <v>44.001533508300781</v>
+        <v>46.853481292724609</v>
       </c>
       <c r="D9" s="2">
         <v>16</v>
       </c>
       <c r="E9" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C10" s="2">
-        <v>91.329185485839844</v>
+        <v>98.278144836425781</v>
       </c>
       <c r="D10" s="2">
         <v>3</v>
@@ -6759,83 +7165,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C11" s="2">
-        <v>80.370101928710938</v>
+        <v>81.969505310058594</v>
       </c>
       <c r="D11" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="C12" s="2">
-        <v>40.643711090087891</v>
+        <v>41.732379913330078</v>
       </c>
       <c r="D12" s="2">
         <v>50</v>
       </c>
       <c r="E12" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>6189</v>
+        <v>6401</v>
       </c>
       <c r="C13" s="2">
-        <v>260.361328125</v>
+        <v>269.27984619140625</v>
       </c>
       <c r="D13" s="2">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="E13" s="2">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>898</v>
+        <v>944</v>
       </c>
       <c r="C14" s="2">
-        <v>301.80816650390625</v>
+        <v>317.26828002929688</v>
       </c>
       <c r="D14" s="2">
         <v>78</v>
       </c>
       <c r="E14" s="2">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>701</v>
+        <v>734</v>
       </c>
       <c r="C15" s="2">
-        <v>182.68862915039063</v>
+        <v>191.28880310058594</v>
       </c>
       <c r="D15" s="2">
         <v>64</v>
@@ -6844,135 +7250,141 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C16" s="2">
-        <v>39.304000854492188</v>
+        <v>41.428539276123047</v>
       </c>
       <c r="D16" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C17" s="2">
-        <v>89.793037414550781</v>
+        <v>91.633056640625</v>
       </c>
       <c r="D17" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C18" s="2">
-        <v>57.469623565673828</v>
+        <v>62.36065673828125</v>
       </c>
       <c r="D18" s="2">
         <v>16</v>
       </c>
       <c r="E18" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="C19" s="2">
-        <v>207.72535705566406</v>
+        <v>210.62553405761719</v>
       </c>
       <c r="D19" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>1557</v>
+        <v>1667</v>
       </c>
       <c r="C20" s="2">
-        <v>90.214797973632813</v>
+        <v>96.588348388671875</v>
       </c>
       <c r="D20" s="2">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E20" s="2">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>663</v>
+        <v>720</v>
       </c>
       <c r="C21" s="2">
-        <v>217.51611328125</v>
+        <v>236.21659851074219</v>
       </c>
       <c r="D21" s="2">
         <v>38</v>
       </c>
       <c r="E21" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1217</v>
+        <v>1248</v>
       </c>
       <c r="C22" s="2">
-        <v>261.44210815429688</v>
+        <v>268.1016845703125</v>
       </c>
       <c r="D22" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -6986,35 +7398,35 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>7185</v>
+        <v>7450</v>
       </c>
       <c r="C2" s="2">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="D2" s="2">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>8133</v>
+        <v>8550</v>
       </c>
       <c r="C3" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D3" s="2">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -7029,15 +7441,19 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -7051,12 +7467,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -7065,12 +7481,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -7079,12 +7495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1095</v>
+        <v>1152</v>
       </c>
       <c r="C4" s="2">
         <v>46</v>
@@ -7093,105 +7509,105 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>1459</v>
+        <v>1540</v>
       </c>
       <c r="C5" s="2">
         <v>53</v>
       </c>
       <c r="D5" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>1940</v>
+        <v>2042</v>
       </c>
       <c r="C6" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D6" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>2642</v>
+        <v>2759</v>
       </c>
       <c r="C7" s="2">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D7" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>2093</v>
+        <v>2175</v>
       </c>
       <c r="C8" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D8" s="2">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>2097</v>
+        <v>2169</v>
       </c>
       <c r="C9" s="2">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D9" s="2">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>2451</v>
+        <v>2567</v>
       </c>
       <c r="C10" s="2">
         <v>35</v>
       </c>
       <c r="D10" s="2">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1265</v>
+        <v>1312</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -7202,28 +7618,33 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/FHM/FHM_latest.xlsx
+++ b/data/FHM/FHM_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11700" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 22 Apr 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 23 Apr 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -505,14 +505,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W80"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
@@ -4921,7 +4920,7 @@
         <v>43926</v>
       </c>
       <c r="B63" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -4969,7 +4968,7 @@
         <v>1</v>
       </c>
       <c r="R63" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S63" s="2">
         <v>2</v>
@@ -4992,7 +4991,7 @@
         <v>43927</v>
       </c>
       <c r="B64" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -5016,7 +5015,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K64" s="2">
         <v>3</v>
@@ -5025,7 +5024,7 @@
         <v>10</v>
       </c>
       <c r="M64" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N64" s="2">
         <v>131</v>
@@ -5040,7 +5039,7 @@
         <v>2</v>
       </c>
       <c r="R64" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S64" s="2">
         <v>4</v>
@@ -6057,10 +6056,10 @@
         <v>43942</v>
       </c>
       <c r="B79" s="2">
-        <v>677</v>
+        <v>710</v>
       </c>
       <c r="C79" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" s="2">
         <v>35</v>
@@ -6072,16 +6071,16 @@
         <v>22</v>
       </c>
       <c r="G79" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H79" s="2">
         <v>13</v>
       </c>
       <c r="I79" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J79" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K79" s="2">
         <v>14</v>
@@ -6093,16 +6092,16 @@
         <v>7</v>
       </c>
       <c r="N79" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="O79" s="2">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="P79" s="2">
         <v>32</v>
       </c>
       <c r="Q79" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R79" s="2">
         <v>5</v>
@@ -6114,13 +6113,13 @@
         <v>39</v>
       </c>
       <c r="U79" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="V79" s="2">
         <v>64</v>
       </c>
       <c r="W79" s="2">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6128,70 +6127,141 @@
         <v>43943</v>
       </c>
       <c r="B80" s="2">
-        <v>200</v>
+        <v>718</v>
       </c>
       <c r="C80" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D80" s="2">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E80" s="2">
         <v>0</v>
       </c>
       <c r="F80" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G80" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H80" s="2">
+        <v>18</v>
+      </c>
+      <c r="I80" s="2">
+        <v>31</v>
+      </c>
+      <c r="J80" s="2">
+        <v>11</v>
+      </c>
+      <c r="K80" s="2">
+        <v>13</v>
+      </c>
+      <c r="L80" s="2">
+        <v>5</v>
+      </c>
+      <c r="M80" s="2">
+        <v>20</v>
+      </c>
+      <c r="N80" s="2">
+        <v>292</v>
+      </c>
+      <c r="O80" s="2">
+        <v>50</v>
+      </c>
+      <c r="P80" s="2">
+        <v>31</v>
+      </c>
+      <c r="Q80" s="2">
+        <v>5</v>
+      </c>
+      <c r="R80" s="2">
+        <v>9</v>
+      </c>
+      <c r="S80" s="2">
+        <v>4</v>
+      </c>
+      <c r="T80" s="2">
+        <v>18</v>
+      </c>
+      <c r="U80" s="2">
+        <v>75</v>
+      </c>
+      <c r="V80" s="2">
+        <v>26</v>
+      </c>
+      <c r="W80" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B81" s="2">
+        <v>202</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
         <v>7</v>
       </c>
-      <c r="I80" s="2">
-        <v>2</v>
-      </c>
-      <c r="J80" s="2">
-        <v>1</v>
-      </c>
-      <c r="K80" s="2">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2">
-        <v>2</v>
-      </c>
-      <c r="M80" s="2">
-        <v>10</v>
-      </c>
-      <c r="N80" s="2">
-        <v>118</v>
-      </c>
-      <c r="O80" s="2">
-        <v>1</v>
-      </c>
-      <c r="P80" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q80" s="2">
-        <v>0</v>
-      </c>
-      <c r="R80" s="2">
-        <v>2</v>
-      </c>
-      <c r="S80" s="2">
-        <v>0</v>
-      </c>
-      <c r="T80" s="2">
-        <v>0</v>
-      </c>
-      <c r="U80" s="2">
-        <v>21</v>
-      </c>
-      <c r="V80" s="2">
-        <v>9</v>
-      </c>
-      <c r="W80" s="2">
-        <v>18</v>
+      <c r="G81" s="2">
+        <v>5</v>
+      </c>
+      <c r="H81" s="2">
+        <v>4</v>
+      </c>
+      <c r="I81" s="2">
+        <v>1</v>
+      </c>
+      <c r="J81" s="2">
+        <v>1</v>
+      </c>
+      <c r="K81" s="2">
+        <v>0</v>
+      </c>
+      <c r="L81" s="2">
+        <v>0</v>
+      </c>
+      <c r="M81" s="2">
+        <v>8</v>
+      </c>
+      <c r="N81" s="2">
+        <v>98</v>
+      </c>
+      <c r="O81" s="2">
+        <v>2</v>
+      </c>
+      <c r="P81" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>1</v>
+      </c>
+      <c r="R81" s="2">
+        <v>0</v>
+      </c>
+      <c r="S81" s="2">
+        <v>1</v>
+      </c>
+      <c r="T81" s="2">
+        <v>11</v>
+      </c>
+      <c r="U81" s="2">
+        <v>23</v>
+      </c>
+      <c r="V81" s="2">
+        <v>16</v>
+      </c>
+      <c r="W81" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -6201,15 +6271,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6297,7 +6367,7 @@
         <v>43910</v>
       </c>
       <c r="B11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6305,7 +6375,7 @@
         <v>43911</v>
       </c>
       <c r="B12" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -6329,7 +6399,7 @@
         <v>43914</v>
       </c>
       <c r="B15" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6337,7 +6407,7 @@
         <v>43915</v>
       </c>
       <c r="B16" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6345,7 +6415,7 @@
         <v>43916</v>
       </c>
       <c r="B17" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -6377,7 +6447,7 @@
         <v>43920</v>
       </c>
       <c r="B21" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -6385,7 +6455,7 @@
         <v>43921</v>
       </c>
       <c r="B22" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6393,7 +6463,7 @@
         <v>43922</v>
       </c>
       <c r="B23" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6409,7 +6479,7 @@
         <v>43924</v>
       </c>
       <c r="B25" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -6425,7 +6495,7 @@
         <v>43926</v>
       </c>
       <c r="B27" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6433,7 +6503,7 @@
         <v>43927</v>
       </c>
       <c r="B28" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6441,7 +6511,7 @@
         <v>43928</v>
       </c>
       <c r="B29" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6449,7 +6519,7 @@
         <v>43929</v>
       </c>
       <c r="B30" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6457,7 +6527,7 @@
         <v>43930</v>
       </c>
       <c r="B31" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6465,7 +6535,7 @@
         <v>43931</v>
       </c>
       <c r="B32" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6473,7 +6543,7 @@
         <v>43932</v>
       </c>
       <c r="B33" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -6481,7 +6551,7 @@
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6497,7 +6567,7 @@
         <v>43935</v>
       </c>
       <c r="B36" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6505,7 +6575,7 @@
         <v>43936</v>
       </c>
       <c r="B37" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6513,7 +6583,7 @@
         <v>43937</v>
       </c>
       <c r="B38" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6521,7 +6591,7 @@
         <v>43938</v>
       </c>
       <c r="B39" s="2">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6529,7 +6599,7 @@
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6537,7 +6607,7 @@
         <v>43940</v>
       </c>
       <c r="B41" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6545,7 +6615,7 @@
         <v>43941</v>
       </c>
       <c r="B42" s="2">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6553,7 +6623,7 @@
         <v>43942</v>
       </c>
       <c r="B43" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6561,15 +6631,23 @@
         <v>43943</v>
       </c>
       <c r="B44" s="2">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B45" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="2">
-        <v>18</v>
+      <c r="B46" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6579,14 +6657,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -6617,7 +6694,7 @@
         <v>43898</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -6761,7 +6838,7 @@
         <v>43916</v>
       </c>
       <c r="B22" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6769,7 +6846,7 @@
         <v>43917</v>
       </c>
       <c r="B23" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6801,7 +6878,7 @@
         <v>43921</v>
       </c>
       <c r="B27" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6857,7 +6934,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6921,7 +6998,7 @@
         <v>43936</v>
       </c>
       <c r="B42" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6937,7 +7014,7 @@
         <v>43938</v>
       </c>
       <c r="B44" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6961,7 +7038,7 @@
         <v>43941</v>
       </c>
       <c r="B47" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -6969,7 +7046,7 @@
         <v>43942</v>
       </c>
       <c r="B48" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -6977,7 +7054,15 @@
         <v>43943</v>
       </c>
       <c r="B49" s="2">
-        <v>4</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B50" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6990,7 +7075,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7017,10 +7102,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
-        <v>29.447513580322266</v>
+        <v>33.83331298828125</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -7034,16 +7119,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="C3" s="2">
-        <v>186.13308715820313</v>
+        <v>197.5927734375</v>
       </c>
       <c r="D3" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7068,16 +7153,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="C5" s="2">
-        <v>154.15022277832031</v>
+        <v>162.50148010253906</v>
       </c>
       <c r="D5" s="2">
         <v>29</v>
       </c>
       <c r="E5" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7085,16 +7170,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="C6" s="2">
-        <v>77.580215454101563</v>
+        <v>86.266807556152344</v>
       </c>
       <c r="D6" s="2">
         <v>19</v>
       </c>
       <c r="E6" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7102,13 +7187,13 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C7" s="2">
-        <v>178.88540649414063</v>
+        <v>190.3524169921875</v>
       </c>
       <c r="D7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
@@ -7119,16 +7204,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>559</v>
+        <v>592</v>
       </c>
       <c r="C8" s="2">
-        <v>153.74079895019531</v>
+        <v>162.81672668457031</v>
       </c>
       <c r="D8" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7136,16 +7221,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="C9" s="2">
-        <v>46.853481292724609</v>
+        <v>52.14996337890625</v>
       </c>
       <c r="D9" s="2">
         <v>16</v>
       </c>
       <c r="E9" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7153,16 +7238,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C10" s="2">
-        <v>98.278144836425781</v>
+        <v>104.73075103759766</v>
       </c>
       <c r="D10" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7170,10 +7255,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C11" s="2">
-        <v>81.969505310058594</v>
+        <v>83.169059753417969</v>
       </c>
       <c r="D11" s="2">
         <v>24</v>
@@ -7187,13 +7272,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="C12" s="2">
-        <v>41.732379913330078</v>
+        <v>42.966205596923828</v>
       </c>
       <c r="D12" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2">
         <v>57</v>
@@ -7204,16 +7289,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>6401</v>
+        <v>6681</v>
       </c>
       <c r="C13" s="2">
-        <v>269.27984619140625</v>
+        <v>281.05899047851563</v>
       </c>
       <c r="D13" s="2">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="E13" s="2">
-        <v>1070</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7221,16 +7306,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>944</v>
+        <v>1004</v>
       </c>
       <c r="C14" s="2">
-        <v>317.26828002929688</v>
+        <v>337.43362426757813</v>
       </c>
       <c r="D14" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7238,16 +7323,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>734</v>
+        <v>767</v>
       </c>
       <c r="C15" s="2">
-        <v>191.28880310058594</v>
+        <v>199.88897705078125</v>
       </c>
       <c r="D15" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7255,13 +7340,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C16" s="2">
-        <v>41.428539276123047</v>
+        <v>43.907173156738281</v>
       </c>
       <c r="D16" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="2">
         <v>5</v>
@@ -7272,16 +7357,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C17" s="2">
-        <v>91.633056640625</v>
+        <v>93.473075866699219</v>
       </c>
       <c r="D17" s="2">
         <v>22</v>
       </c>
       <c r="E17" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7289,10 +7374,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2">
-        <v>62.36065673828125</v>
+        <v>64.398590087890625</v>
       </c>
       <c r="D18" s="2">
         <v>16</v>
@@ -7306,16 +7391,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>581</v>
+        <v>610</v>
       </c>
       <c r="C19" s="2">
-        <v>210.62553405761719</v>
+        <v>221.13868713378906</v>
       </c>
       <c r="D19" s="2">
         <v>29</v>
       </c>
       <c r="E19" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7323,16 +7408,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>1667</v>
+        <v>1745</v>
       </c>
       <c r="C20" s="2">
-        <v>96.588348388671875</v>
+        <v>101.10778045654297</v>
       </c>
       <c r="D20" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="E20" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7340,16 +7425,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>720</v>
+        <v>753</v>
       </c>
       <c r="C21" s="2">
-        <v>236.21659851074219</v>
+        <v>247.04319763183594</v>
       </c>
       <c r="D21" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E21" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7357,16 +7442,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1248</v>
+        <v>1282</v>
       </c>
       <c r="C22" s="2">
-        <v>268.1016845703125</v>
+        <v>275.40576171875</v>
       </c>
       <c r="D22" s="2">
         <v>61</v>
       </c>
       <c r="E22" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -7378,8 +7463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7403,13 +7488,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>7450</v>
+        <v>7701</v>
       </c>
       <c r="C2" s="2">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="D2" s="2">
-        <v>1101</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7417,13 +7502,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>8550</v>
+        <v>9050</v>
       </c>
       <c r="C3" s="2">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="D3" s="2">
-        <v>836</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7449,7 +7534,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -7472,7 +7559,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -7486,7 +7573,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C3" s="2">
         <v>3</v>
@@ -7500,10 +7587,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1152</v>
+        <v>1245</v>
       </c>
       <c r="C4" s="2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -7514,13 +7601,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>1540</v>
+        <v>1641</v>
       </c>
       <c r="C5" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -7528,13 +7615,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>2042</v>
+        <v>2166</v>
       </c>
       <c r="C6" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -7542,13 +7629,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>2759</v>
+        <v>2910</v>
       </c>
       <c r="C7" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="D7" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -7556,13 +7643,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>2175</v>
+        <v>2245</v>
       </c>
       <c r="C8" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D8" s="2">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7570,13 +7657,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>2169</v>
+        <v>2227</v>
       </c>
       <c r="C9" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D9" s="2">
-        <v>459</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -7584,13 +7671,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>2567</v>
+        <v>2637</v>
       </c>
       <c r="C10" s="2">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2">
-        <v>777</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -7598,13 +7685,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1312</v>
+        <v>1381</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>455</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -7618,7 +7705,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7630,7 +7717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>

--- a/data/FHM/FHM_latest.xlsx
+++ b/data/FHM/FHM_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17085" windowHeight="7005" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 28 Apr 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 29 Apr 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -505,13 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W86"/>
+  <dimension ref="A1:W87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B87"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -5276,7 +5278,7 @@
         <v>43931</v>
       </c>
       <c r="B68" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C68" s="2">
         <v>1</v>
@@ -5309,7 +5311,7 @@
         <v>6</v>
       </c>
       <c r="M68" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N68" s="2">
         <v>148</v>
@@ -5347,7 +5349,7 @@
         <v>43932</v>
       </c>
       <c r="B69" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C69" s="2">
         <v>0</v>
@@ -5383,7 +5385,7 @@
         <v>6</v>
       </c>
       <c r="N69" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O69" s="2">
         <v>22</v>
@@ -5560,7 +5562,7 @@
         <v>43935</v>
       </c>
       <c r="B72" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -5596,7 +5598,7 @@
         <v>12</v>
       </c>
       <c r="N72" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O72" s="2">
         <v>16</v>
@@ -6554,70 +6556,141 @@
         <v>43949</v>
       </c>
       <c r="B86" s="2">
-        <v>231</v>
+        <v>744</v>
       </c>
       <c r="C86" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D86" s="2">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E86" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F86" s="2">
+        <v>16</v>
+      </c>
+      <c r="G86" s="2">
+        <v>33</v>
+      </c>
+      <c r="H86" s="2">
+        <v>11</v>
+      </c>
+      <c r="I86" s="2">
+        <v>18</v>
+      </c>
+      <c r="J86" s="2">
+        <v>5</v>
+      </c>
+      <c r="K86" s="2">
+        <v>21</v>
+      </c>
+      <c r="L86" s="2">
+        <v>1</v>
+      </c>
+      <c r="M86" s="2">
+        <v>34</v>
+      </c>
+      <c r="N86" s="2">
+        <v>222</v>
+      </c>
+      <c r="O86" s="2">
+        <v>55</v>
+      </c>
+      <c r="P86" s="2">
+        <v>52</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>17</v>
+      </c>
+      <c r="R86" s="2">
         <v>3</v>
       </c>
-      <c r="G86" s="2">
-        <v>25</v>
-      </c>
-      <c r="H86" s="2">
+      <c r="S86" s="2">
+        <v>4</v>
+      </c>
+      <c r="T86" s="2">
+        <v>21</v>
+      </c>
+      <c r="U86" s="2">
+        <v>83</v>
+      </c>
+      <c r="V86" s="2">
+        <v>72</v>
+      </c>
+      <c r="W86" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B87" s="2">
+        <v>169</v>
+      </c>
+      <c r="C87" s="2">
+        <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="2">
+        <v>0</v>
+      </c>
+      <c r="H87" s="2">
+        <v>0</v>
+      </c>
+      <c r="I87" s="2">
+        <v>3</v>
+      </c>
+      <c r="J87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="2">
+        <v>0</v>
+      </c>
+      <c r="L87" s="2">
+        <v>1</v>
+      </c>
+      <c r="M87" s="2">
+        <v>0</v>
+      </c>
+      <c r="N87" s="2">
+        <v>79</v>
+      </c>
+      <c r="O87" s="2">
+        <v>14</v>
+      </c>
+      <c r="P87" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>6</v>
+      </c>
+      <c r="R87" s="2">
+        <v>1</v>
+      </c>
+      <c r="S87" s="2">
         <v>5</v>
       </c>
-      <c r="I86" s="2">
-        <v>4</v>
-      </c>
-      <c r="J86" s="2">
-        <v>2</v>
-      </c>
-      <c r="K86" s="2">
-        <v>0</v>
-      </c>
-      <c r="L86" s="2">
-        <v>0</v>
-      </c>
-      <c r="M86" s="2">
-        <v>0</v>
-      </c>
-      <c r="N86" s="2">
-        <v>88</v>
-      </c>
-      <c r="O86" s="2">
-        <v>0</v>
-      </c>
-      <c r="P86" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="2">
-        <v>2</v>
-      </c>
-      <c r="R86" s="2">
-        <v>0</v>
-      </c>
-      <c r="S86" s="2">
-        <v>1</v>
-      </c>
-      <c r="T86" s="2">
+      <c r="T87" s="2">
         <v>13</v>
       </c>
-      <c r="U86" s="2">
-        <v>22</v>
-      </c>
-      <c r="V86" s="2">
-        <v>39</v>
-      </c>
-      <c r="W86" s="2">
-        <v>27</v>
+      <c r="U87" s="2">
+        <v>18</v>
+      </c>
+      <c r="V87" s="2">
+        <v>13</v>
+      </c>
+      <c r="W87" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -6627,13 +6700,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6753,7 +6828,7 @@
         <v>43914</v>
       </c>
       <c r="B15" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -6761,7 +6836,7 @@
         <v>43915</v>
       </c>
       <c r="B16" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6809,7 +6884,7 @@
         <v>43921</v>
       </c>
       <c r="B22" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -6857,7 +6932,7 @@
         <v>43927</v>
       </c>
       <c r="B28" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6865,7 +6940,7 @@
         <v>43928</v>
       </c>
       <c r="B29" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -6873,7 +6948,7 @@
         <v>43929</v>
       </c>
       <c r="B30" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -6881,7 +6956,7 @@
         <v>43930</v>
       </c>
       <c r="B31" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -6889,7 +6964,7 @@
         <v>43931</v>
       </c>
       <c r="B32" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -6905,7 +6980,7 @@
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -6913,7 +6988,7 @@
         <v>43934</v>
       </c>
       <c r="B35" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -6921,7 +6996,7 @@
         <v>43935</v>
       </c>
       <c r="B36" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -6929,7 +7004,7 @@
         <v>43936</v>
       </c>
       <c r="B37" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6937,7 +7012,7 @@
         <v>43937</v>
       </c>
       <c r="B38" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -6945,7 +7020,7 @@
         <v>43938</v>
       </c>
       <c r="B39" s="2">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -6953,7 +7028,7 @@
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -6961,7 +7036,7 @@
         <v>43940</v>
       </c>
       <c r="B41" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -6969,7 +7044,7 @@
         <v>43941</v>
       </c>
       <c r="B42" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -6977,7 +7052,7 @@
         <v>43942</v>
       </c>
       <c r="B43" s="2">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -6985,7 +7060,7 @@
         <v>43943</v>
       </c>
       <c r="B44" s="2">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -6993,7 +7068,7 @@
         <v>43944</v>
       </c>
       <c r="B45" s="2">
-        <v>54</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7001,7 +7076,7 @@
         <v>43945</v>
       </c>
       <c r="B46" s="2">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7009,7 +7084,7 @@
         <v>43946</v>
       </c>
       <c r="B47" s="2">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7017,7 +7092,7 @@
         <v>43947</v>
       </c>
       <c r="B48" s="2">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7025,7 +7100,7 @@
         <v>43948</v>
       </c>
       <c r="B49" s="2">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7033,15 +7108,23 @@
         <v>43949</v>
       </c>
       <c r="B50" s="2">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="2">
-        <v>18</v>
+      <c r="B52" s="2">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -7051,14 +7134,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B56"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="15.08984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -7185,7 +7267,7 @@
         <v>43910</v>
       </c>
       <c r="B16" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7193,7 +7275,7 @@
         <v>43911</v>
       </c>
       <c r="B17" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -7209,7 +7291,7 @@
         <v>43913</v>
       </c>
       <c r="B19" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7217,7 +7299,7 @@
         <v>43914</v>
       </c>
       <c r="B20" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7225,7 +7307,7 @@
         <v>43915</v>
       </c>
       <c r="B21" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7233,7 +7315,7 @@
         <v>43916</v>
       </c>
       <c r="B22" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7265,7 +7347,7 @@
         <v>43920</v>
       </c>
       <c r="B26" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7273,7 +7355,7 @@
         <v>43921</v>
       </c>
       <c r="B27" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7281,7 +7363,7 @@
         <v>43922</v>
       </c>
       <c r="B28" s="2">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7289,7 +7371,7 @@
         <v>43923</v>
       </c>
       <c r="B29" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7297,7 +7379,7 @@
         <v>43924</v>
       </c>
       <c r="B30" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7305,7 +7387,7 @@
         <v>43925</v>
       </c>
       <c r="B31" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7329,7 +7411,7 @@
         <v>43928</v>
       </c>
       <c r="B34" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7337,7 +7419,7 @@
         <v>43929</v>
       </c>
       <c r="B35" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7345,7 +7427,7 @@
         <v>43930</v>
       </c>
       <c r="B36" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7369,7 +7451,7 @@
         <v>43933</v>
       </c>
       <c r="B39" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7385,7 +7467,7 @@
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -7401,7 +7483,7 @@
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7417,7 +7499,7 @@
         <v>43939</v>
       </c>
       <c r="B45" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7425,7 +7507,7 @@
         <v>43940</v>
       </c>
       <c r="B46" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7449,7 +7531,7 @@
         <v>43943</v>
       </c>
       <c r="B49" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7457,7 +7539,7 @@
         <v>43944</v>
       </c>
       <c r="B50" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7465,7 +7547,7 @@
         <v>43945</v>
       </c>
       <c r="B51" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7473,7 +7555,7 @@
         <v>43946</v>
       </c>
       <c r="B52" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7481,7 +7563,7 @@
         <v>43947</v>
       </c>
       <c r="B53" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7489,7 +7571,7 @@
         <v>43948</v>
       </c>
       <c r="B54" s="2">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7497,7 +7579,15 @@
         <v>43949</v>
       </c>
       <c r="B55" s="2">
-        <v>4</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B56" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7511,14 +7601,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -7542,10 +7625,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2">
-        <v>40.098743438720703</v>
+        <v>41.978370666503906</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -7559,16 +7642,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>697</v>
+        <v>732</v>
       </c>
       <c r="C3" s="2">
-        <v>242.04246520996094</v>
+        <v>254.19667053222656</v>
       </c>
       <c r="D3" s="2">
         <v>39</v>
       </c>
       <c r="E3" s="2">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7576,13 +7659,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2">
-        <v>58.640216827392578</v>
+        <v>65.341957092285156</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -7593,16 +7676,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>534</v>
+        <v>547</v>
       </c>
       <c r="C5" s="2">
-        <v>185.81539916992188</v>
+        <v>190.3389892578125</v>
       </c>
       <c r="D5" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7610,10 +7693,10 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C6" s="2">
-        <v>102.14229583740234</v>
+        <v>104.53858947753906</v>
       </c>
       <c r="D6" s="2">
         <v>20</v>
@@ -7627,10 +7710,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C7" s="2">
-        <v>220.16665649414063</v>
+        <v>224.75346374511719</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -7644,16 +7727,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>712</v>
+        <v>729</v>
       </c>
       <c r="C8" s="2">
-        <v>195.82011413574219</v>
+        <v>200.49560546875</v>
       </c>
       <c r="D8" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7661,10 +7744,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C9" s="2">
-        <v>61.520660400390625</v>
+        <v>63.150344848632813</v>
       </c>
       <c r="D9" s="2">
         <v>19</v>
@@ -7678,16 +7761,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="C10" s="2">
-        <v>134.01565551757813</v>
+        <v>144.43910217285156</v>
       </c>
       <c r="D10" s="2">
         <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7695,10 +7778,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C11" s="2">
-        <v>97.163856506347656</v>
+        <v>97.963554382324219</v>
       </c>
       <c r="D11" s="2">
         <v>27</v>
@@ -7712,10 +7795,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>713</v>
+        <v>746</v>
       </c>
       <c r="C12" s="2">
-        <v>51.748149871826172</v>
+        <v>54.143226623535156</v>
       </c>
       <c r="D12" s="2">
         <v>61</v>
@@ -7729,16 +7812,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>7622</v>
+        <v>7835</v>
       </c>
       <c r="C13" s="2">
-        <v>320.64535522460938</v>
+        <v>329.60592651367188</v>
       </c>
       <c r="D13" s="2">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="E13" s="2">
-        <v>1287</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7746,16 +7829,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1107</v>
+        <v>1176</v>
       </c>
       <c r="C14" s="2">
-        <v>372.05081176757813</v>
+        <v>395.240966796875</v>
       </c>
       <c r="D14" s="2">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E14" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7763,16 +7846,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>914</v>
+        <v>966</v>
       </c>
       <c r="C15" s="2">
-        <v>238.19886779785156</v>
+        <v>251.75065612792969</v>
       </c>
       <c r="D15" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E15" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7780,13 +7863,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="C16" s="2">
-        <v>52.051242828369141</v>
+        <v>59.487136840820313</v>
       </c>
       <c r="D16" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2">
         <v>8</v>
@@ -7797,16 +7880,16 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C17" s="2">
-        <v>110.03326416015625</v>
+        <v>111.50528717041016</v>
       </c>
       <c r="D17" s="2">
         <v>24</v>
       </c>
       <c r="E17" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7814,16 +7897,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C18" s="2">
-        <v>89.668914794921875</v>
+        <v>92.929603576660156</v>
       </c>
       <c r="D18" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7831,16 +7914,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="C19" s="2">
-        <v>262.10372924804688</v>
+        <v>269.7166748046875</v>
       </c>
       <c r="D19" s="2">
         <v>33</v>
       </c>
       <c r="E19" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7848,16 +7931,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>2212</v>
+        <v>2291</v>
       </c>
       <c r="C20" s="2">
-        <v>128.16642761230469</v>
+        <v>132.74380493164063</v>
       </c>
       <c r="D20" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E20" s="2">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -7865,16 +7948,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>928</v>
+        <v>974</v>
       </c>
       <c r="C21" s="2">
-        <v>304.45693969726563</v>
+        <v>319.54855346679688</v>
       </c>
       <c r="D21" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -7882,16 +7965,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1401</v>
+        <v>1423</v>
       </c>
       <c r="C22" s="2">
-        <v>300.96994018554688</v>
+        <v>305.69607543945313</v>
       </c>
       <c r="D22" s="2">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E22" s="2">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -7905,13 +7988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -7932,13 +8009,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>8828</v>
+        <v>9057</v>
       </c>
       <c r="C2" s="2">
-        <v>1028</v>
+        <v>1069</v>
       </c>
       <c r="D2" s="2">
-        <v>1337</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7946,13 +8023,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>10790</v>
+        <v>11242</v>
       </c>
       <c r="C3" s="2">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D3" s="2">
-        <v>1018</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7978,15 +8055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -8021,10 +8092,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C3" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -8035,10 +8106,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1486</v>
+        <v>1559</v>
       </c>
       <c r="C4" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -8049,13 +8120,13 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>1980</v>
+        <v>2083</v>
       </c>
       <c r="C5" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -8063,10 +8134,10 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>2573</v>
+        <v>2684</v>
       </c>
       <c r="C6" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D6" s="2">
         <v>25</v>
@@ -8077,10 +8148,10 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>3443</v>
+        <v>3569</v>
       </c>
       <c r="C7" s="2">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="D7" s="2">
         <v>81</v>
@@ -8091,13 +8162,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>2585</v>
+        <v>2646</v>
       </c>
       <c r="C8" s="2">
-        <v>425</v>
+        <v>439</v>
       </c>
       <c r="D8" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8105,13 +8176,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>2530</v>
+        <v>2596</v>
       </c>
       <c r="C9" s="2">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D9" s="2">
-        <v>549</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8119,13 +8190,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>3056</v>
+        <v>3148</v>
       </c>
       <c r="C10" s="2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D10" s="2">
-        <v>938</v>
+        <v>981</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8133,13 +8204,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1622</v>
+        <v>1669</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>564</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8167,7 +8238,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/data/FHM/FHM_latest.xlsx
+++ b/data/FHM/FHM_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9480" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22380" windowHeight="10005" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM  4 May 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM  5 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -505,13 +505,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W92"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B92"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
@@ -5133,7 +5134,7 @@
         <v>43929</v>
       </c>
       <c r="B66" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C66" s="2">
         <v>2</v>
@@ -5193,7 +5194,7 @@
         <v>68</v>
       </c>
       <c r="V66" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W66" s="2">
         <v>57</v>
@@ -5701,7 +5702,7 @@
         <v>43937</v>
       </c>
       <c r="B74" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C74" s="2">
         <v>0</v>
@@ -5764,7 +5765,7 @@
         <v>30</v>
       </c>
       <c r="W74" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -6917,7 +6918,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" s="2">
         <v>8</v>
@@ -6944,7 +6945,7 @@
         <v>6</v>
       </c>
       <c r="N91" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O91" s="2">
         <v>1</v>
@@ -6979,70 +6980,141 @@
         <v>43955</v>
       </c>
       <c r="B92" s="2">
-        <v>123</v>
+        <v>461</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
       </c>
       <c r="D92" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E92" s="2">
         <v>0</v>
       </c>
       <c r="F92" s="2">
+        <v>23</v>
+      </c>
+      <c r="G92" s="2">
+        <v>11</v>
+      </c>
+      <c r="H92" s="2">
+        <v>2</v>
+      </c>
+      <c r="I92" s="2">
+        <v>16</v>
+      </c>
+      <c r="J92" s="2">
+        <v>14</v>
+      </c>
+      <c r="K92" s="2">
+        <v>4</v>
+      </c>
+      <c r="L92" s="2">
+        <v>4</v>
+      </c>
+      <c r="M92" s="2">
+        <v>38</v>
+      </c>
+      <c r="N92" s="2">
+        <v>135</v>
+      </c>
+      <c r="O92" s="2">
         <v>3</v>
       </c>
-      <c r="G92" s="2">
+      <c r="P92" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>6</v>
+      </c>
+      <c r="R92" s="2">
+        <v>1</v>
+      </c>
+      <c r="S92" s="2">
         <v>4</v>
       </c>
-      <c r="H92" s="2">
-        <v>2</v>
-      </c>
-      <c r="I92" s="2">
-        <v>0</v>
-      </c>
-      <c r="J92" s="2">
-        <v>5</v>
-      </c>
-      <c r="K92" s="2">
-        <v>0</v>
-      </c>
-      <c r="L92" s="2">
-        <v>2</v>
-      </c>
-      <c r="M92" s="2">
-        <v>0</v>
-      </c>
-      <c r="N92" s="2">
-        <v>32</v>
-      </c>
-      <c r="O92" s="2">
-        <v>0</v>
-      </c>
-      <c r="P92" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="2">
-        <v>0</v>
-      </c>
-      <c r="R92" s="2">
-        <v>0</v>
-      </c>
-      <c r="S92" s="2">
-        <v>2</v>
-      </c>
       <c r="T92" s="2">
+        <v>8</v>
+      </c>
+      <c r="U92" s="2">
+        <v>77</v>
+      </c>
+      <c r="V92" s="2">
+        <v>17</v>
+      </c>
+      <c r="W92" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
+      <c r="A93" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B93" s="2">
+        <v>155</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>6</v>
+      </c>
+      <c r="G93" s="2">
+        <v>1</v>
+      </c>
+      <c r="H93" s="2">
+        <v>7</v>
+      </c>
+      <c r="I93" s="2">
+        <v>3</v>
+      </c>
+      <c r="J93" s="2">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2">
+        <v>2</v>
+      </c>
+      <c r="L93" s="2">
+        <v>3</v>
+      </c>
+      <c r="M93" s="2">
         <v>4</v>
       </c>
-      <c r="U92" s="2">
-        <v>9</v>
-      </c>
-      <c r="V92" s="2">
+      <c r="N93" s="2">
+        <v>46</v>
+      </c>
+      <c r="O93" s="2">
+        <v>26</v>
+      </c>
+      <c r="P93" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>7</v>
+      </c>
+      <c r="R93" s="2">
+        <v>1</v>
+      </c>
+      <c r="S93" s="2">
+        <v>0</v>
+      </c>
+      <c r="T93" s="2">
+        <v>7</v>
+      </c>
+      <c r="U93" s="2">
+        <v>25</v>
+      </c>
+      <c r="V93" s="2">
         <v>3</v>
       </c>
-      <c r="W92" s="2">
-        <v>5</v>
+      <c r="W93" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7052,13 +7124,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B57" sqref="B2:B57"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B49" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -7161,7 +7236,7 @@
         <v>43912</v>
       </c>
       <c r="B13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -7273,7 +7348,7 @@
         <v>43926</v>
       </c>
       <c r="B27" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7329,7 +7404,7 @@
         <v>43933</v>
       </c>
       <c r="B34" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7377,7 +7452,7 @@
         <v>43939</v>
       </c>
       <c r="B40" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7393,7 +7468,7 @@
         <v>43941</v>
       </c>
       <c r="B42" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7417,7 +7492,7 @@
         <v>43944</v>
       </c>
       <c r="B45" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -7433,7 +7508,7 @@
         <v>43946</v>
       </c>
       <c r="B47" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7441,7 +7516,7 @@
         <v>43947</v>
       </c>
       <c r="B48" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7449,7 +7524,7 @@
         <v>43948</v>
       </c>
       <c r="B49" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -7457,7 +7532,7 @@
         <v>43949</v>
       </c>
       <c r="B50" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7465,7 +7540,7 @@
         <v>43950</v>
       </c>
       <c r="B51" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7473,7 +7548,7 @@
         <v>43951</v>
       </c>
       <c r="B52" s="2">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7481,7 +7556,7 @@
         <v>43952</v>
       </c>
       <c r="B53" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -7489,7 +7564,7 @@
         <v>43953</v>
       </c>
       <c r="B54" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7497,7 +7572,7 @@
         <v>43954</v>
       </c>
       <c r="B55" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7505,14 +7580,22 @@
         <v>43955</v>
       </c>
       <c r="B56" s="2">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B57" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B58" s="2">
         <v>8</v>
       </c>
     </row>
@@ -7523,10 +7606,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7728,7 +7811,7 @@
         <v>43919</v>
       </c>
       <c r="B25" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -7736,7 +7819,7 @@
         <v>43920</v>
       </c>
       <c r="B26" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7752,7 +7835,7 @@
         <v>43922</v>
       </c>
       <c r="B28" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7760,7 +7843,7 @@
         <v>43923</v>
       </c>
       <c r="B29" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -7776,7 +7859,7 @@
         <v>43925</v>
       </c>
       <c r="B31" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7832,7 +7915,7 @@
         <v>43932</v>
       </c>
       <c r="B38" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7840,7 +7923,7 @@
         <v>43933</v>
       </c>
       <c r="B39" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7848,7 +7931,7 @@
         <v>43934</v>
       </c>
       <c r="B40" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7872,7 +7955,7 @@
         <v>43937</v>
       </c>
       <c r="B43" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7976,7 +8059,7 @@
         <v>43950</v>
       </c>
       <c r="B56" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -7984,7 +8067,7 @@
         <v>43951</v>
       </c>
       <c r="B57" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -7992,7 +8075,7 @@
         <v>43952</v>
       </c>
       <c r="B58" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8008,7 +8091,7 @@
         <v>43954</v>
       </c>
       <c r="B60" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8016,7 +8099,15 @@
         <v>43955</v>
       </c>
       <c r="B61" s="2">
-        <v>2</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B62" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -8028,7 +8119,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -8071,10 +8164,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>856</v>
+        <v>868</v>
       </c>
       <c r="C3" s="2">
-        <v>297.25732421875</v>
+        <v>301.42446899414063</v>
       </c>
       <c r="D3" s="2">
         <v>42</v>
@@ -8088,10 +8181,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
-        <v>90.473480224609375</v>
+        <v>88.798042297363281</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -8105,16 +8198,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>635</v>
+        <v>661</v>
       </c>
       <c r="C5" s="2">
-        <v>220.96025085449219</v>
+        <v>230.0074462890625</v>
       </c>
       <c r="D5" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8122,16 +8215,16 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C6" s="2">
-        <v>115.9210205078125</v>
+        <v>118.31732177734375</v>
       </c>
       <c r="D6" s="2">
         <v>25</v>
       </c>
       <c r="E6" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8139,10 +8232,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="C7" s="2">
-        <v>274.44384765625</v>
+        <v>279.79513549804688</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -8156,16 +8249,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="C8" s="2">
-        <v>232.67390441894531</v>
+        <v>237.89944458007813</v>
       </c>
       <c r="D8" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8173,16 +8266,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C9" s="2">
-        <v>76.187835693359375</v>
+        <v>79.854629516601563</v>
       </c>
       <c r="D9" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8190,16 +8283,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="C10" s="2">
-        <v>175.70941162109375</v>
+        <v>178.68754577636719</v>
       </c>
       <c r="D10" s="2">
         <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -8207,10 +8300,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C11" s="2">
-        <v>108.35968780517578</v>
+        <v>110.35894775390625</v>
       </c>
       <c r="D11" s="2">
         <v>29</v>
@@ -8224,13 +8317,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>857</v>
+        <v>899</v>
       </c>
       <c r="C12" s="2">
-        <v>62.199390411376953</v>
+        <v>65.247665405273438</v>
       </c>
       <c r="D12" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E12" s="2">
         <v>70</v>
@@ -8241,16 +8334,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>8536</v>
+        <v>8686</v>
       </c>
       <c r="C13" s="2">
-        <v>359.09588623046875</v>
+        <v>365.4061279296875</v>
       </c>
       <c r="D13" s="2">
-        <v>630</v>
+        <v>637</v>
       </c>
       <c r="E13" s="2">
-        <v>1463</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -8258,16 +8351,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1285</v>
+        <v>1314</v>
       </c>
       <c r="C14" s="2">
-        <v>431.87469482421875</v>
+        <v>441.62130737304688</v>
       </c>
       <c r="D14" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E14" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8275,16 +8368,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1068</v>
+        <v>1089</v>
       </c>
       <c r="C15" s="2">
-        <v>278.33303833007813</v>
+        <v>283.80587768554688</v>
       </c>
       <c r="D15" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E15" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -8292,13 +8385,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C16" s="2">
-        <v>73.296646118164063</v>
+        <v>77.899818420410156</v>
       </c>
       <c r="D16" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2">
         <v>15</v>
@@ -8309,10 +8402,10 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C17" s="2">
-        <v>121.44139862060547</v>
+        <v>122.17740631103516</v>
       </c>
       <c r="D17" s="2">
         <v>24</v>
@@ -8326,16 +8419,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C18" s="2">
-        <v>112.49373626708984</v>
+        <v>113.30890655517578</v>
       </c>
       <c r="D18" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -8343,16 +8436,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>809</v>
+        <v>820</v>
       </c>
       <c r="C19" s="2">
-        <v>293.2806396484375</v>
+        <v>297.26840209960938</v>
       </c>
       <c r="D19" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -8360,16 +8453,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>2720</v>
+        <v>2813</v>
       </c>
       <c r="C20" s="2">
-        <v>157.60066223144531</v>
+        <v>162.98922729492188</v>
       </c>
       <c r="D20" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="E20" s="2">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -8377,16 +8470,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1111</v>
+        <v>1129</v>
       </c>
       <c r="C21" s="2">
-        <v>364.49533081054688</v>
+        <v>370.4007568359375</v>
       </c>
       <c r="D21" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -8394,16 +8487,16 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1499</v>
+        <v>1522</v>
       </c>
       <c r="C22" s="2">
-        <v>322.02279663085938</v>
+        <v>326.96377563476563</v>
       </c>
       <c r="D22" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -8438,13 +8531,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>10021</v>
+        <v>10231</v>
       </c>
       <c r="C2" s="2">
-        <v>1177</v>
+        <v>1202</v>
       </c>
       <c r="D2" s="2">
-        <v>1565</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8452,13 +8545,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>12696</v>
+        <v>12982</v>
       </c>
       <c r="C3" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D3" s="2">
-        <v>1204</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8466,7 +8559,7 @@
         <v>36</v>
       </c>
       <c r="B4" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -8507,7 +8600,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
@@ -8521,13 +8614,13 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -8535,13 +8628,13 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>1766</v>
+        <v>1807</v>
       </c>
       <c r="C4" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8549,10 +8642,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>2390</v>
+        <v>2439</v>
       </c>
       <c r="C5" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -8563,13 +8656,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>3049</v>
+        <v>3136</v>
       </c>
       <c r="C6" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D6" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8577,13 +8670,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>4006</v>
+        <v>4091</v>
       </c>
       <c r="C7" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D7" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -8591,13 +8684,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>2915</v>
+        <v>2971</v>
       </c>
       <c r="C8" s="2">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D8" s="2">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -8605,13 +8698,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>2842</v>
+        <v>2914</v>
       </c>
       <c r="C9" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D9" s="2">
-        <v>642</v>
+        <v>664</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -8619,13 +8712,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>3506</v>
+        <v>3562</v>
       </c>
       <c r="C10" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2">
-        <v>1112</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8633,13 +8726,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>1868</v>
+        <v>1912</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>669</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -8647,13 +8740,13 @@
         <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/FHM/FHM_latest.xlsx
+++ b/data/FHM/FHM_latest.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Antal per dag region" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Totalt antal per region" sheetId="4" r:id="rId4"/>
     <sheet name="Totalt antal per kön" sheetId="5" r:id="rId5"/>
     <sheet name="Totalt antal per åldersgrupp" sheetId="6" r:id="rId6"/>
-    <sheet name="FOHM 25 May 2020" sheetId="7" r:id="rId7"/>
+    <sheet name="FOHM 26 May 2020" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -221,11 +221,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6341,7 +6340,7 @@
         <v>43946</v>
       </c>
       <c r="B83" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -6350,7 +6349,7 @@
         <v>45</v>
       </c>
       <c r="E83" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" s="2">
         <v>23</v>
@@ -7093,7 +7092,7 @@
         <v>39</v>
       </c>
       <c r="P93" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q93" s="2">
         <v>17</v>
@@ -7108,7 +7107,7 @@
         <v>17</v>
       </c>
       <c r="U93" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V93" s="2">
         <v>49</v>
@@ -8116,7 +8115,7 @@
         <v>43971</v>
       </c>
       <c r="B108" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C108" s="2">
         <v>23</v>
@@ -8134,7 +8133,7 @@
         <v>42</v>
       </c>
       <c r="H108" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I108" s="2">
         <v>32</v>
@@ -8149,10 +8148,10 @@
         <v>7</v>
       </c>
       <c r="M108" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N108" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O108" s="2">
         <v>22</v>
@@ -8338,7 +8337,7 @@
         <v>13</v>
       </c>
       <c r="E111" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111" s="2">
         <v>22</v>
@@ -8365,7 +8364,7 @@
         <v>27</v>
       </c>
       <c r="N111" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O111" s="2">
         <v>2</v>
@@ -8400,28 +8399,28 @@
         <v>43975</v>
       </c>
       <c r="B112" s="2">
-        <v>165</v>
+        <v>211</v>
       </c>
       <c r="C112" s="2">
         <v>3</v>
       </c>
       <c r="D112" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E112" s="2">
         <v>1</v>
       </c>
       <c r="F112" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G112" s="2">
         <v>2</v>
       </c>
       <c r="H112" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" s="2">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J112" s="2">
         <v>0</v>
@@ -8433,16 +8432,16 @@
         <v>0</v>
       </c>
       <c r="M112" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N112" s="2">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P112" s="2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q112" s="2">
         <v>3</v>
@@ -8457,13 +8456,13 @@
         <v>0</v>
       </c>
       <c r="U112" s="2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="V112" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W112" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8471,74 +8470,142 @@
         <v>43976</v>
       </c>
       <c r="B113" s="2">
-        <v>88</v>
+        <v>452</v>
       </c>
       <c r="C113" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D113" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E113" s="2">
         <v>0</v>
       </c>
       <c r="F113" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G113" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H113" s="2">
         <v>2</v>
       </c>
       <c r="I113" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="J113" s="2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="K113" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L113" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M113" s="2">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="N113" s="2">
+        <v>128</v>
+      </c>
+      <c r="O113" s="2">
+        <v>14</v>
+      </c>
+      <c r="P113" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>2</v>
+      </c>
+      <c r="R113" s="2">
+        <v>0</v>
+      </c>
+      <c r="S113" s="2">
+        <v>3</v>
+      </c>
+      <c r="T113" s="2">
+        <v>28</v>
+      </c>
+      <c r="U113" s="2">
+        <v>107</v>
+      </c>
+      <c r="V113" s="2">
         <v>11</v>
       </c>
-      <c r="O113" s="2">
-        <v>0</v>
-      </c>
-      <c r="P113" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="2">
-        <v>0</v>
-      </c>
-      <c r="R113" s="2">
-        <v>0</v>
-      </c>
-      <c r="S113" s="2">
-        <v>1</v>
-      </c>
-      <c r="T113" s="2">
-        <v>19</v>
-      </c>
-      <c r="U113" s="2">
-        <v>48</v>
-      </c>
-      <c r="V113" s="2">
-        <v>2</v>
-      </c>
       <c r="W113" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:23">
-      <c r="B114" s="3"/>
+      <c r="A114" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B114" s="2">
+        <v>189</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0</v>
+      </c>
+      <c r="D114" s="2">
+        <v>0</v>
+      </c>
+      <c r="E114" s="2">
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <v>6</v>
+      </c>
+      <c r="G114" s="2">
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <v>14</v>
+      </c>
+      <c r="I114" s="2">
+        <v>3</v>
+      </c>
+      <c r="J114" s="2">
+        <v>5</v>
+      </c>
+      <c r="K114" s="2">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2">
+        <v>4</v>
+      </c>
+      <c r="M114" s="2">
+        <v>24</v>
+      </c>
+      <c r="N114" s="2">
+        <v>23</v>
+      </c>
+      <c r="O114" s="2">
+        <v>11</v>
+      </c>
+      <c r="P114" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>10</v>
+      </c>
+      <c r="R114" s="2">
+        <v>0</v>
+      </c>
+      <c r="S114" s="2">
+        <v>8</v>
+      </c>
+      <c r="T114" s="2">
+        <v>17</v>
+      </c>
+      <c r="U114" s="2">
+        <v>39</v>
+      </c>
+      <c r="V114" s="2">
+        <v>0</v>
+      </c>
+      <c r="W114" s="2">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8549,8 +8616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B51" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9040,7 +9107,7 @@
         <v>43960</v>
       </c>
       <c r="B61" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -9056,7 +9123,7 @@
         <v>43962</v>
       </c>
       <c r="B63" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -9064,7 +9131,7 @@
         <v>43963</v>
       </c>
       <c r="B64" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -9072,7 +9139,7 @@
         <v>43964</v>
       </c>
       <c r="B65" s="2">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -9080,7 +9147,7 @@
         <v>43965</v>
       </c>
       <c r="B66" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -9088,7 +9155,7 @@
         <v>43966</v>
       </c>
       <c r="B67" s="2">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -9096,7 +9163,7 @@
         <v>43967</v>
       </c>
       <c r="B68" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -9104,7 +9171,7 @@
         <v>43968</v>
       </c>
       <c r="B69" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -9112,7 +9179,7 @@
         <v>43969</v>
       </c>
       <c r="B70" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -9120,7 +9187,7 @@
         <v>43970</v>
       </c>
       <c r="B71" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -9128,7 +9195,7 @@
         <v>43971</v>
       </c>
       <c r="B72" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -9136,7 +9203,7 @@
         <v>43972</v>
       </c>
       <c r="B73" s="2">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -9144,7 +9211,7 @@
         <v>43973</v>
       </c>
       <c r="B74" s="2">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -9152,7 +9219,7 @@
         <v>43974</v>
       </c>
       <c r="B75" s="2">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -9160,7 +9227,7 @@
         <v>43975</v>
       </c>
       <c r="B76" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -9168,19 +9235,24 @@
         <v>43976</v>
       </c>
       <c r="B77" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B78" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B79" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="B79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9191,14 +9263,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -9525,7 +9594,7 @@
         <v>43935</v>
       </c>
       <c r="B41" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -9581,7 +9650,7 @@
         <v>43942</v>
       </c>
       <c r="B48" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -9797,7 +9866,7 @@
         <v>43969</v>
       </c>
       <c r="B75" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -9813,7 +9882,7 @@
         <v>43971</v>
       </c>
       <c r="B77" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -9829,7 +9898,7 @@
         <v>43973</v>
       </c>
       <c r="B79" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -9837,7 +9906,7 @@
         <v>43974</v>
       </c>
       <c r="B80" s="2">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -9845,7 +9914,7 @@
         <v>43975</v>
       </c>
       <c r="B81" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -9853,11 +9922,16 @@
         <v>43976</v>
       </c>
       <c r="B82" s="2">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="B83" s="3"/>
+      <c r="A83" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9866,10 +9940,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:E23"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9896,10 +9970,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2">
-        <v>92.101799011230469</v>
+        <v>93.981430053710938</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -9913,16 +9987,16 @@
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>1131</v>
+        <v>1140</v>
       </c>
       <c r="C3" s="2">
-        <v>392.75469970703125</v>
+        <v>395.88006591796875</v>
       </c>
       <c r="D3" s="2">
         <v>56</v>
       </c>
       <c r="E3" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9939,7 +10013,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9947,16 +10021,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="2">
-        <v>1128</v>
+        <v>1154</v>
       </c>
       <c r="C5" s="2">
-        <v>392.5089111328125</v>
+        <v>401.55612182617188</v>
       </c>
       <c r="D5" s="2">
         <v>47</v>
       </c>
       <c r="E5" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9964,13 +10038,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="2">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C6" s="2">
-        <v>196.19706726074219</v>
+        <v>198.59336853027344</v>
       </c>
       <c r="D6" s="2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>52</v>
@@ -9981,10 +10055,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="2">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="C7" s="2">
-        <v>486.9658203125</v>
+        <v>497.66836547851563</v>
       </c>
       <c r="D7" s="2">
         <v>15</v>
@@ -9998,16 +10072,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>1323</v>
+        <v>1359</v>
       </c>
       <c r="C8" s="2">
-        <v>363.86239624023438</v>
+        <v>373.76339721679688</v>
       </c>
       <c r="D8" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E8" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -10015,16 +10089,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C9" s="2">
-        <v>114.07804870605469</v>
+        <v>122.22647857666016</v>
       </c>
       <c r="D9" s="2">
         <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -10032,16 +10106,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="C10" s="2">
-        <v>369.783935546875</v>
+        <v>373.7547607421875</v>
       </c>
       <c r="D10" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -10049,10 +10123,10 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C11" s="2">
-        <v>144.34629821777344</v>
+        <v>149.14451599121094</v>
       </c>
       <c r="D11" s="2">
         <v>37</v>
@@ -10066,16 +10140,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>1493</v>
+        <v>1545</v>
       </c>
       <c r="C12" s="2">
-        <v>108.35903167724609</v>
+        <v>112.13308715820313</v>
       </c>
       <c r="D12" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -10083,16 +10157,16 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>11271</v>
+        <v>11419</v>
       </c>
       <c r="C13" s="2">
-        <v>474.1529541015625</v>
+        <v>480.37908935546875</v>
       </c>
       <c r="D13" s="2">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="E13" s="2">
-        <v>1942</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -10100,16 +10174,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>1565</v>
+        <v>1591</v>
       </c>
       <c r="C14" s="2">
-        <v>525.97967529296875</v>
+        <v>534.718017578125</v>
       </c>
       <c r="D14" s="2">
         <v>118</v>
       </c>
       <c r="E14" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -10117,16 +10191,16 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>1685</v>
+        <v>1722</v>
       </c>
       <c r="C15" s="2">
-        <v>439.13027954101563</v>
+        <v>448.77291870117188</v>
       </c>
       <c r="D15" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E15" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -10134,10 +10208,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C16" s="2">
-        <v>144.11466979980469</v>
+        <v>148.36375427246094</v>
       </c>
       <c r="D16" s="2">
         <v>20</v>
@@ -10157,10 +10231,10 @@
         <v>171.85798645019531</v>
       </c>
       <c r="D17" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -10168,16 +10242,16 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="C18" s="2">
-        <v>241.698486328125</v>
+        <v>245.77435302734375</v>
       </c>
       <c r="D18" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -10185,16 +10259,16 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>1137</v>
+        <v>1163</v>
       </c>
       <c r="C19" s="2">
-        <v>412.18801879882813</v>
+        <v>421.61358642578125</v>
       </c>
       <c r="D19" s="2">
         <v>42</v>
       </c>
       <c r="E19" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -10202,16 +10276,16 @@
         <v>29</v>
       </c>
       <c r="B20" s="2">
-        <v>5164</v>
+        <v>5267</v>
       </c>
       <c r="C20" s="2">
-        <v>299.20950317382813</v>
+        <v>305.17745971679688</v>
       </c>
       <c r="D20" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E20" s="2">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -10219,16 +10293,16 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>1677</v>
+        <v>1687</v>
       </c>
       <c r="C21" s="2">
-        <v>550.18780517578125</v>
+        <v>553.4686279296875</v>
       </c>
       <c r="D21" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E21" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -10236,23 +10310,17 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>1907</v>
+        <v>1944</v>
       </c>
       <c r="C22" s="2">
-        <v>409.67141723632813</v>
+        <v>417.61996459960938</v>
       </c>
       <c r="D22" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E22" s="2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+        <v>172</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10261,11 +10329,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -10288,13 +10354,13 @@
         <v>34</v>
       </c>
       <c r="B2" s="2">
-        <v>13906</v>
+        <v>14140</v>
       </c>
       <c r="C2" s="2">
-        <v>1452</v>
+        <v>1474</v>
       </c>
       <c r="D2" s="2">
-        <v>2219</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -10302,13 +10368,13 @@
         <v>35</v>
       </c>
       <c r="B3" s="2">
-        <v>19934</v>
+        <v>20297</v>
       </c>
       <c r="C3" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="D3" s="2">
-        <v>1810</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -10324,11 +10390,6 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10337,11 +10398,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -10364,7 +10423,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2">
         <v>4</v>
@@ -10378,10 +10437,10 @@
         <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C3" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -10392,10 +10451,10 @@
         <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>3054</v>
+        <v>3104</v>
       </c>
       <c r="C4" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2">
         <v>8</v>
@@ -10406,10 +10465,10 @@
         <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>3974</v>
+        <v>4051</v>
       </c>
       <c r="C5" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D5" s="2">
         <v>12</v>
@@ -10420,13 +10479,13 @@
         <v>42</v>
       </c>
       <c r="B6" s="2">
-        <v>4859</v>
+        <v>4962</v>
       </c>
       <c r="C6" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D6" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -10434,13 +10493,13 @@
         <v>43</v>
       </c>
       <c r="B7" s="2">
-        <v>6065</v>
+        <v>6190</v>
       </c>
       <c r="C7" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="D7" s="2">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -10448,13 +10507,13 @@
         <v>44</v>
       </c>
       <c r="B8" s="2">
-        <v>4112</v>
+        <v>4186</v>
       </c>
       <c r="C8" s="2">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="D8" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10462,13 +10521,13 @@
         <v>45</v>
       </c>
       <c r="B9" s="2">
-        <v>3841</v>
+        <v>3888</v>
       </c>
       <c r="C9" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="D9" s="2">
-        <v>888</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -10476,13 +10535,13 @@
         <v>46</v>
       </c>
       <c r="B10" s="2">
-        <v>4754</v>
+        <v>4830</v>
       </c>
       <c r="C10" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2">
-        <v>1656</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -10490,13 +10549,13 @@
         <v>47</v>
       </c>
       <c r="B11" s="2">
-        <v>2622</v>
+        <v>2652</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>1017</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -10504,7 +10563,7 @@
         <v>36</v>
       </c>
       <c r="B12" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -10512,11 +10571,6 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10527,7 +10581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
